--- a/WB.xlsx
+++ b/WB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590704A-A3BE-864D-A265-9E36F49712F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E57A83-0C92-9846-996F-D6FE7400C2D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15500" yWindow="460" windowWidth="20340" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52240" yWindow="-5940" windowWidth="26100" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>Q117</t>
   </si>
@@ -339,9 +339,6 @@
     <t>31/12/2019</t>
   </si>
   <si>
-    <t>427-437</t>
-  </si>
-  <si>
     <t>Advertising</t>
   </si>
   <si>
@@ -358,6 +355,18 @@
   </si>
   <si>
     <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Advertising y/y</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -595,9 +604,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -625,6 +631,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -706,15 +727,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>153377</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>153377</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -730,8 +751,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19011900" y="177800"/>
-          <a:ext cx="0" cy="9080500"/>
+          <a:off x="20561300" y="178777"/>
+          <a:ext cx="0" cy="9632461"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1023,11 +1044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1049,10 +1070,10 @@
         <v>73</v>
       </c>
       <c r="C2" s="16">
-        <v>35.89</v>
-      </c>
-      <c r="D2" s="65">
-        <v>43970</v>
+        <v>54.87</v>
+      </c>
+      <c r="D2" s="64">
+        <v>44253</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
@@ -1070,11 +1091,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="9">
-        <f>Reports!V22</f>
-        <v>227.029</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>106</v>
+        <f>Reports!X22</f>
+        <v>227.79300000000001</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
@@ -1097,9 +1118,9 @@
       </c>
       <c r="C4" s="11">
         <f>C2*C3</f>
-        <v>8148.0708100000002</v>
-      </c>
-      <c r="D4" s="66"/>
+        <v>12499.001909999999</v>
+      </c>
+      <c r="D4" s="65"/>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1108,11 +1129,11 @@
         <v>0.08</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="L4" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="L4" s="62" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
@@ -1120,21 +1141,21 @@
         <v>26</v>
       </c>
       <c r="C5" s="9">
-        <f>Reports!V34</f>
-        <v>1733</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>106</v>
+        <f>Reports!X34</f>
+        <v>1952</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="6">
         <f>NPV(F4,G27:FD27)</f>
-        <v>7767.3840556168716</v>
+        <v>1508.4819355240211</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="18"/>
     </row>
@@ -1147,15 +1168,15 @@
       </c>
       <c r="C6" s="11">
         <f>C4-C5</f>
-        <v>6415.0708100000002</v>
-      </c>
-      <c r="D6" s="66"/>
+        <v>10547.001909999999</v>
+      </c>
+      <c r="D6" s="65"/>
       <c r="E6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="19">
         <f>F5+C5</f>
-        <v>9500.3840556168725</v>
+        <v>3460.4819355240211</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1165,19 +1186,19 @@
       </c>
       <c r="C7" s="20">
         <f>C6/C3</f>
-        <v>28.256613956807282</v>
-      </c>
-      <c r="D7" s="66"/>
+        <v>46.300816574697201</v>
+      </c>
+      <c r="D7" s="65"/>
       <c r="E7" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="22">
         <f>F6/C3</f>
-        <v>41.846566102202239</v>
+        <v>15.191344490498045</v>
       </c>
       <c r="G7" s="18">
         <f>F7/C2-1</f>
-        <v>0.16596729178607528</v>
+        <v>-0.7231393386094761</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -1283,6 +1304,10 @@
         <f>SUM(Reports!R3:U3)</f>
         <v>1530.1410000000001</v>
       </c>
+      <c r="G10" s="7">
+        <f>SUM(Reports!V3:Y3)</f>
+        <v>1446.7980000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1307,6 +1332,10 @@
       <c r="F11" s="7">
         <f>SUM(Reports!R4:U4)</f>
         <v>236.036</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUM(Reports!V4:Y4)</f>
+        <v>202.74299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
@@ -1339,24 +1368,24 @@
         <v>222</v>
       </c>
       <c r="G13" s="7">
-        <f>F13*1.1</f>
-        <v>244.20000000000002</v>
+        <f>Reports!Y6</f>
+        <v>233.10000000000002</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" ref="H13:K13" si="1">G13*1.1</f>
-        <v>268.62000000000006</v>
+        <f>G13*1.05</f>
+        <v>244.75500000000002</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="1"/>
-        <v>295.48200000000008</v>
+        <f t="shared" ref="I13:K13" si="1">H13*1.05</f>
+        <v>256.99275000000006</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>325.03020000000009</v>
+        <v>269.84238750000009</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="1"/>
-        <v>357.53322000000014</v>
+        <v>283.3345068750001</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -1368,7 +1397,7 @@
         <v>4.5084056603773579</v>
       </c>
       <c r="C14" s="20">
-        <f t="shared" ref="C14:F14" si="2">SUM(C10:C11)/C13</f>
+        <f t="shared" ref="C14:G14" si="2">SUM(C10:C11)/C13</f>
         <v>4.717985611510791</v>
       </c>
       <c r="D14" s="20">
@@ -1383,25 +1412,25 @@
         <f t="shared" si="2"/>
         <v>7.9557522522522532</v>
       </c>
-      <c r="G14" s="54">
-        <f>F14*0.95</f>
-        <v>7.55796463963964</v>
+      <c r="G14" s="20">
+        <f t="shared" si="2"/>
+        <v>7.0765379665379662</v>
       </c>
       <c r="H14" s="54">
         <f t="shared" ref="H14:K14" si="3">G14*0.95</f>
-        <v>7.1800664076576579</v>
+        <v>6.7227110682110673</v>
       </c>
       <c r="I14" s="54">
         <f t="shared" si="3"/>
-        <v>6.8210630872747746</v>
+        <v>6.3865755148005139</v>
       </c>
       <c r="J14" s="54">
         <f t="shared" si="3"/>
-        <v>6.4800099329110354</v>
+        <v>6.0672467390604883</v>
       </c>
       <c r="K14" s="54">
         <f t="shared" si="3"/>
-        <v>6.1560094362654834</v>
+        <v>5.7638844021074638</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
@@ -1428,65 +1457,65 @@
         <f t="shared" si="4"/>
         <v>1766.1770000000001</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="23">
         <f t="shared" si="4"/>
-        <v>1845.6549650000002</v>
+        <v>1649.5410000000002</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" ref="H16:I16" si="5">H13*H14</f>
-        <v>1928.7094384250006</v>
+        <v>1645.4171475000001</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="5"/>
-        <v>2015.5013631541256</v>
+        <v>1641.3036046312502</v>
       </c>
       <c r="J16" s="10">
         <f>J13*J14</f>
-        <v>2106.198924496061</v>
+        <v>1637.2003456196721</v>
       </c>
       <c r="K16" s="10">
         <f>K13*K14</f>
-        <v>2200.9778760983841</v>
+        <v>1633.107344755623</v>
       </c>
       <c r="L16" s="10">
-        <f>K16*1.02</f>
-        <v>2244.9974336203518</v>
+        <f>K16*0.99</f>
+        <v>1616.7762713080667</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" ref="M16:U16" si="6">L16*1.02</f>
-        <v>2289.8973822927587</v>
+        <f t="shared" ref="M16:U16" si="6">L16*0.99</f>
+        <v>1600.608508594986</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="6"/>
-        <v>2335.6953299386141</v>
+        <v>1584.602423509036</v>
       </c>
       <c r="O16" s="10">
         <f t="shared" si="6"/>
-        <v>2382.4092365373863</v>
+        <v>1568.7563992739456</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="6"/>
-        <v>2430.057421268134</v>
+        <v>1553.068835281206</v>
       </c>
       <c r="Q16" s="10">
         <f t="shared" si="6"/>
-        <v>2478.6585696934967</v>
+        <v>1537.5381469283939</v>
       </c>
       <c r="R16" s="10">
         <f t="shared" si="6"/>
-        <v>2528.2317410873666</v>
+        <v>1522.16276545911</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" si="6"/>
-        <v>2578.796375909114</v>
+        <v>1506.9411378045188</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" si="6"/>
-        <v>2630.3723034272962</v>
+        <v>1491.8717264264735</v>
       </c>
       <c r="U16" s="10">
         <f t="shared" si="6"/>
-        <v>2682.979749495842</v>
+        <v>1476.9530091622087</v>
       </c>
     </row>
     <row r="17" spans="1:160" x14ac:dyDescent="0.15">
@@ -1513,65 +1542,65 @@
         <f>SUM(Reports!R10:U10)</f>
         <v>328.81700000000001</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" ref="G17:H17" si="7">G16-G18</f>
-        <v>343.61376500000006</v>
+      <c r="G17" s="7">
+        <f>SUM(Reports!V10:Y10)</f>
+        <v>293.18685327619113</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="7"/>
-        <v>359.07638442500024</v>
+        <f t="shared" ref="G17:H17" si="7">H16-H18</f>
+        <v>292.45388614300077</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" ref="I17:U17" si="8">I16-I18</f>
-        <v>375.23482172412514</v>
+        <v>291.72275142764329</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="8"/>
-        <v>392.12038870171091</v>
+        <v>290.99344454907418</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="8"/>
-        <v>409.76580619328797</v>
+        <v>290.26596093770149</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="8"/>
-        <v>417.96112231715369</v>
+        <v>287.3633013283245</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="8"/>
-        <v>426.32034476349668</v>
+        <v>284.48966831504117</v>
       </c>
       <c r="N17" s="9">
         <f t="shared" si="8"/>
-        <v>434.84675165876661</v>
+        <v>281.64477163189076</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="8"/>
-        <v>443.54368669194196</v>
+        <v>278.8283239155719</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="8"/>
-        <v>452.41456042578079</v>
+        <v>276.04004067641608</v>
       </c>
       <c r="Q17" s="9">
         <f t="shared" si="8"/>
-        <v>461.46285163429638</v>
+        <v>273.27964026965196</v>
       </c>
       <c r="R17" s="9">
         <f t="shared" si="8"/>
-        <v>470.69210866698222</v>
+        <v>270.54684386695544</v>
       </c>
       <c r="S17" s="9">
         <f t="shared" si="8"/>
-        <v>480.10595084032184</v>
+        <v>267.8413754282858</v>
       </c>
       <c r="T17" s="9">
         <f t="shared" si="8"/>
-        <v>489.70806985712807</v>
+        <v>265.1629616740031</v>
       </c>
       <c r="U17" s="9">
         <f t="shared" si="8"/>
-        <v>499.50223125427055</v>
+        <v>262.51133205726319</v>
       </c>
     </row>
     <row r="18" spans="1:160" x14ac:dyDescent="0.15">
@@ -1598,65 +1627,65 @@
         <f>F16-F17</f>
         <v>1437.3600000000001</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" ref="G18:H18" si="9">G16*F37</f>
-        <v>1502.0412000000001</v>
+      <c r="G18" s="11">
+        <f>G16-G17</f>
+        <v>1356.354146723809</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="9"/>
-        <v>1569.6330540000004</v>
+        <f t="shared" ref="G18:H18" si="9">H16*G37</f>
+        <v>1352.9632613569993</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" ref="I18:U18" si="10">I16*H37</f>
-        <v>1640.2665414300004</v>
+        <v>1349.5808532036069</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="10"/>
-        <v>1714.07853579435</v>
+        <v>1346.206901070598</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="10"/>
-        <v>1791.2120699050961</v>
+        <v>1342.8413838179215</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="10"/>
-        <v>1827.0363113031981</v>
+        <v>1329.4129699797422</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="10"/>
-        <v>1863.577037529262</v>
+        <v>1316.1188402799448</v>
       </c>
       <c r="N18" s="9">
         <f t="shared" si="10"/>
-        <v>1900.8485782798475</v>
+        <v>1302.9576518771453</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="10"/>
-        <v>1938.8655498454443</v>
+        <v>1289.9280753583737</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="10"/>
-        <v>1977.6428608423532</v>
+        <v>1277.0287946047899</v>
       </c>
       <c r="Q18" s="9">
         <f t="shared" si="10"/>
-        <v>2017.1957180592003</v>
+        <v>1264.2585066587419</v>
       </c>
       <c r="R18" s="9">
         <f t="shared" si="10"/>
-        <v>2057.5396324203844</v>
+        <v>1251.6159215921546</v>
       </c>
       <c r="S18" s="9">
         <f t="shared" si="10"/>
-        <v>2098.6904250687921</v>
+        <v>1239.099762376233</v>
       </c>
       <c r="T18" s="9">
         <f t="shared" si="10"/>
-        <v>2140.6642335701681</v>
+        <v>1226.7087647524704</v>
       </c>
       <c r="U18" s="9">
         <f t="shared" si="10"/>
-        <v>2183.4775182415715</v>
+        <v>1214.4416771049455</v>
       </c>
     </row>
     <row r="19" spans="1:160" x14ac:dyDescent="0.15">
@@ -1683,65 +1712,65 @@
         <f>SUM(Reports!R12:U12)</f>
         <v>283.85300000000001</v>
       </c>
-      <c r="G19" s="9">
-        <f>F19*1.1</f>
-        <v>312.23830000000004</v>
+      <c r="G19" s="7">
+        <f>SUM(Reports!V12:Y12)</f>
+        <v>324</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" ref="H19:K19" si="11">G19*1.1</f>
-        <v>343.46213000000006</v>
+        <v>356.40000000000003</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="11"/>
-        <v>377.80834300000009</v>
+        <v>392.04000000000008</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="11"/>
-        <v>415.58917730000013</v>
+        <v>431.24400000000014</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="11"/>
-        <v>457.14809503000021</v>
+        <v>474.36840000000018</v>
       </c>
       <c r="L19" s="9">
         <f>K19*1.05</f>
-        <v>480.00549978150025</v>
+        <v>498.08682000000022</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" ref="M19:U19" si="12">L19*1.05</f>
-        <v>504.00577477057527</v>
+        <v>522.99116100000026</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="12"/>
-        <v>529.20606350910407</v>
+        <v>549.14071905000026</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="12"/>
-        <v>555.66636668455931</v>
+        <v>576.59775500250032</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="12"/>
-        <v>583.44968501878725</v>
+        <v>605.42764275262539</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="12"/>
-        <v>612.62216926972667</v>
+        <v>635.69902489025674</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="12"/>
-        <v>643.25327773321305</v>
+        <v>667.48397613476959</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="12"/>
-        <v>675.41594161987371</v>
+        <v>700.85817494150808</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="12"/>
-        <v>709.18673870086741</v>
+        <v>735.90108368858353</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" si="12"/>
-        <v>744.64607563591085</v>
+        <v>772.69613787301273</v>
       </c>
     </row>
     <row r="20" spans="1:160" x14ac:dyDescent="0.15">
@@ -1768,65 +1797,65 @@
         <f>SUM(Reports!R13:U13)</f>
         <v>464.15100000000001</v>
       </c>
-      <c r="G20" s="9">
-        <f>F20*0.98</f>
-        <v>454.86797999999999</v>
+      <c r="G20" s="7">
+        <f>SUM(Reports!V13:Y13)</f>
+        <v>426.7</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" ref="H20:K20" si="13">G20*0.98</f>
-        <v>445.77062039999998</v>
+        <f>G20*0.95</f>
+        <v>405.36499999999995</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="13"/>
-        <v>436.85520799199998</v>
+        <f t="shared" ref="I20:K20" si="13">H20*0.95</f>
+        <v>385.09674999999993</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="13"/>
-        <v>428.11810383215999</v>
+        <v>365.84191249999992</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="13"/>
-        <v>419.55574175551681</v>
+        <v>347.54981687499992</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" ref="L20:U20" si="14">K20*0.98</f>
-        <v>411.16462692040648</v>
+        <v>340.59882053749993</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="14"/>
-        <v>402.94133438199833</v>
+        <v>333.78684412674994</v>
       </c>
       <c r="N20" s="9">
         <f t="shared" si="14"/>
-        <v>394.88250769435837</v>
+        <v>327.11110724421496</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="14"/>
-        <v>386.98485754047118</v>
+        <v>320.56888509933066</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" si="14"/>
-        <v>379.24516038966175</v>
+        <v>314.15750739734403</v>
       </c>
       <c r="Q20" s="9">
         <f t="shared" si="14"/>
-        <v>371.66025718186853</v>
+        <v>307.87435724939712</v>
       </c>
       <c r="R20" s="9">
         <f t="shared" si="14"/>
-        <v>364.22705203823114</v>
+        <v>301.71687010440917</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" si="14"/>
-        <v>356.94251099746651</v>
+        <v>295.682532702321</v>
       </c>
       <c r="T20" s="9">
         <f t="shared" si="14"/>
-        <v>349.80366077751717</v>
+        <v>289.76888204827458</v>
       </c>
       <c r="U20" s="9">
         <f t="shared" si="14"/>
-        <v>342.80758756196684</v>
+        <v>283.97350440730906</v>
       </c>
     </row>
     <row r="21" spans="1:160" x14ac:dyDescent="0.15">
@@ -1853,65 +1882,65 @@
         <f>SUM(Reports!R14:U14)</f>
         <v>90.287000000000006</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" ref="G21:K21" si="15">F21*1.3</f>
-        <v>117.37310000000001</v>
+      <c r="G21" s="7">
+        <f>SUM(Reports!V14:Y14)</f>
+        <v>126.19999999999999</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="15"/>
-        <v>152.58503000000002</v>
+        <f t="shared" ref="G21:K21" si="15">G21*1.3</f>
+        <v>164.06</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="15"/>
-        <v>198.36053900000002</v>
+        <v>213.27800000000002</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="15"/>
-        <v>257.86870070000003</v>
+        <v>277.26140000000004</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="15"/>
-        <v>335.22931091000004</v>
+        <v>360.43982000000005</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" ref="L21:U21" si="16">K21*0.98</f>
-        <v>328.52472469180003</v>
+        <v>353.23102360000007</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="16"/>
-        <v>321.95423019796402</v>
+        <v>346.16640312800007</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="16"/>
-        <v>315.51514559400476</v>
+        <v>339.24307506544005</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="16"/>
-        <v>309.20484268212465</v>
+        <v>332.45821356413126</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" si="16"/>
-        <v>303.02074582848218</v>
+        <v>325.80904929284861</v>
       </c>
       <c r="Q21" s="9">
         <f t="shared" si="16"/>
-        <v>296.96033091191254</v>
+        <v>319.29286830699164</v>
       </c>
       <c r="R21" s="9">
         <f t="shared" si="16"/>
-        <v>291.02112429367429</v>
+        <v>312.90701094085182</v>
       </c>
       <c r="S21" s="9">
         <f t="shared" si="16"/>
-        <v>285.20070180780078</v>
+        <v>306.64887072203476</v>
       </c>
       <c r="T21" s="9">
         <f t="shared" si="16"/>
-        <v>279.49668777164476</v>
+        <v>300.51589330759407</v>
       </c>
       <c r="U21" s="9">
         <f t="shared" si="16"/>
-        <v>273.90675401621183</v>
+        <v>294.5055754414422</v>
       </c>
     </row>
     <row r="22" spans="1:160" x14ac:dyDescent="0.15">
@@ -1938,65 +1967,65 @@
         <f>SUM(F19:F21)</f>
         <v>838.29100000000005</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" ref="G22:H22" si="17">SUM(G19:G21)</f>
-        <v>884.47937999999999</v>
+      <c r="G22" s="11">
+        <f>SUM(G19:G21)</f>
+        <v>876.90000000000009</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="17"/>
-        <v>941.81778039999995</v>
+        <f t="shared" ref="G22:H22" si="17">SUM(H19:H21)</f>
+        <v>925.82500000000005</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" ref="I22:U22" si="18">SUM(I19:I21)</f>
-        <v>1013.0240899920001</v>
+        <v>990.41475000000003</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="18"/>
-        <v>1101.5759818321601</v>
+        <v>1074.3473125</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="18"/>
-        <v>1211.9331476955172</v>
+        <v>1182.3580368750002</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="18"/>
-        <v>1219.6948513937068</v>
+        <v>1191.9166641375002</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="18"/>
-        <v>1228.9013393505377</v>
+        <v>1202.9444082547502</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="18"/>
-        <v>1239.6037167974671</v>
+        <v>1215.4949013596552</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="18"/>
-        <v>1251.8560669071553</v>
+        <v>1229.6248536659623</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" si="18"/>
-        <v>1265.7155912369312</v>
+        <v>1245.394199442818</v>
       </c>
       <c r="Q22" s="9">
         <f t="shared" si="18"/>
-        <v>1281.2427573635077</v>
+        <v>1262.8662504466456</v>
       </c>
       <c r="R22" s="9">
         <f t="shared" si="18"/>
-        <v>1298.5014540651184</v>
+        <v>1282.1078571800306</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="18"/>
-        <v>1317.5591544251411</v>
+        <v>1303.1895783658638</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="18"/>
-        <v>1338.4870872500292</v>
+        <v>1326.1858590444522</v>
       </c>
       <c r="U22" s="9">
         <f t="shared" si="18"/>
-        <v>1361.3604172140895</v>
+        <v>1351.1752177217641</v>
       </c>
     </row>
     <row r="23" spans="1:160" x14ac:dyDescent="0.15">
@@ -2023,65 +2052,65 @@
         <f>F18-F22</f>
         <v>599.06900000000007</v>
       </c>
-      <c r="G23" s="9">
-        <f t="shared" ref="G23:H23" si="19">G18-G22</f>
-        <v>617.56182000000013</v>
+      <c r="G23" s="11">
+        <f>G18-G22</f>
+        <v>479.45414672380889</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="19"/>
-        <v>627.81527360000041</v>
+        <f t="shared" ref="G23:H23" si="19">H18-H22</f>
+        <v>427.13826135699924</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" ref="I23:U23" si="20">I18-I22</f>
-        <v>627.24245143800033</v>
+        <v>359.16610320360689</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="20"/>
-        <v>612.50255396218995</v>
+        <v>271.85958857059791</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="20"/>
-        <v>579.27892220957892</v>
+        <v>160.48334694292134</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="20"/>
-        <v>607.34145990949128</v>
+        <v>137.49630584224201</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="20"/>
-        <v>634.67569817872436</v>
+        <v>113.17443202519462</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="20"/>
-        <v>661.24486148238043</v>
+        <v>87.462750517490122</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="20"/>
-        <v>687.00948293828901</v>
+        <v>60.303221692411398</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" si="20"/>
-        <v>711.927269605422</v>
+        <v>31.634595161971902</v>
       </c>
       <c r="Q23" s="9">
         <f t="shared" si="20"/>
-        <v>735.95296069569258</v>
+        <v>1.3922562120962994</v>
       </c>
       <c r="R23" s="9">
         <f t="shared" si="20"/>
-        <v>759.03817835526593</v>
+        <v>-30.491935587876014</v>
       </c>
       <c r="S23" s="9">
         <f t="shared" si="20"/>
-        <v>781.13127064365108</v>
+        <v>-64.089815989630779</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="20"/>
-        <v>802.17714632013895</v>
+        <v>-99.477094291981757</v>
       </c>
       <c r="U23" s="9">
         <f t="shared" si="20"/>
-        <v>822.11710102748202</v>
+        <v>-136.73354061681857</v>
       </c>
     </row>
     <row r="24" spans="1:160" x14ac:dyDescent="0.15">
@@ -2108,65 +2137,65 @@
         <f>SUM(Reports!R17:U17)</f>
         <v>4.578000000000003</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" ref="G24:U24" si="21">F41*($F$3)</f>
-        <v>34.980000000000004</v>
+      <c r="G24" s="7">
+        <f>SUM(Reports!V17:Y17)</f>
+        <v>46.144500000000001</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="21"/>
-        <v>45.420669120000007</v>
+        <f t="shared" ref="G24:U24" si="21">G41*($F$3)</f>
+        <v>42.985044514089189</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="21"/>
-        <v>56.192444203520012</v>
+        <v>50.507017408026606</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="21"/>
-        <v>67.127402533784334</v>
+        <v>57.061787337812738</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="21"/>
-        <v>78.001481837719922</v>
+        <v>62.324529352347312</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="21"/>
-        <v>88.517968302476689</v>
+        <v>65.889455373071613</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="21"/>
-        <v>99.651719153868186</v>
+        <v>69.143627552516634</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="21"/>
-        <v>111.40095783118966</v>
+        <v>72.060716505760013</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="21"/>
-        <v>123.76329094020679</v>
+        <v>74.613091978132019</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" si="21"/>
-        <v>136.73565532226272</v>
+        <v>76.771752996860712</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="21"/>
-        <v>150.31426212110568</v>
+        <v>78.506254567402038</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="21"/>
-        <v>164.49453768617445</v>
+        <v>79.784630739874018</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="21"/>
-        <v>179.27106114283751</v>
+        <v>80.57331386230598</v>
       </c>
       <c r="T24" s="9">
         <f t="shared" si="21"/>
-        <v>194.63749845142132</v>
+        <v>80.837049828268789</v>
       </c>
       <c r="U24" s="9">
         <f t="shared" si="21"/>
-        <v>210.58653276776627</v>
+        <v>80.538809116849379</v>
       </c>
     </row>
     <row r="25" spans="1:160" x14ac:dyDescent="0.15">
@@ -2193,65 +2222,65 @@
         <f>F23+F24</f>
         <v>603.64700000000005</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" ref="G25:H25" si="22">G23+G24</f>
-        <v>652.54182000000014</v>
+      <c r="G25" s="11">
+        <f>G23+G24</f>
+        <v>525.59864672380888</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="22"/>
-        <v>673.23594272000037</v>
+        <f t="shared" ref="G25:H25" si="22">H23+H24</f>
+        <v>470.12330587108841</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" ref="I25:U25" si="23">I23+I24</f>
-        <v>683.43489564152037</v>
+        <v>409.67312061163352</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="23"/>
-        <v>679.62995649597428</v>
+        <v>328.92137590841065</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="23"/>
-        <v>657.28040404729882</v>
+        <v>222.80787629526867</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="23"/>
-        <v>695.85942821196795</v>
+        <v>203.38576121531361</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="23"/>
-        <v>734.32741733259252</v>
+        <v>182.31805957771127</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="23"/>
-        <v>772.64581931357009</v>
+        <v>159.52346702325013</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="23"/>
-        <v>810.77277387849585</v>
+        <v>134.91631367054342</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="23"/>
-        <v>848.66292492768468</v>
+        <v>108.40634815883261</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="23"/>
-        <v>886.26722281679827</v>
+        <v>79.898510779498338</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="23"/>
-        <v>923.53271604144038</v>
+        <v>49.292695151998004</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="23"/>
-        <v>960.40233178648862</v>
+        <v>16.483497872675201</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="23"/>
-        <v>996.81464477156032</v>
+        <v>-18.640044463712968</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="23"/>
-        <v>1032.7036337952484</v>
+        <v>-56.194731499969194</v>
       </c>
     </row>
     <row r="26" spans="1:160" x14ac:dyDescent="0.15">
@@ -2278,65 +2307,65 @@
         <f>SUM(Reports!R19:U19)</f>
         <v>109.07300000000001</v>
       </c>
-      <c r="G26" s="9">
-        <f>G25*0.2</f>
-        <v>130.50836400000003</v>
+      <c r="G26" s="7">
+        <f>SUM(Reports!V19:Y19)</f>
+        <v>125.3464210193498</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" ref="H26" si="24">H25*0.2</f>
-        <v>134.64718854400007</v>
+        <v>94.024661174217684</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" ref="I26:U26" si="25">I25*0.2</f>
-        <v>136.68697912830407</v>
+        <v>81.93462412232671</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="25"/>
-        <v>135.92599129919486</v>
+        <v>65.784275181682133</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="25"/>
-        <v>131.45608080945976</v>
+        <v>44.56157525905374</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="25"/>
-        <v>139.17188564239359</v>
+        <v>40.677152243062721</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="25"/>
-        <v>146.8654834665185</v>
+        <v>36.463611915542252</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="25"/>
-        <v>154.52916386271403</v>
+        <v>31.904693404650029</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="25"/>
-        <v>162.15455477569918</v>
+        <v>26.983262734108685</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" si="25"/>
-        <v>169.73258498553696</v>
+        <v>21.681269631766526</v>
       </c>
       <c r="Q26" s="9">
         <f t="shared" si="25"/>
-        <v>177.25344456335966</v>
+        <v>15.979702155899668</v>
       </c>
       <c r="R26" s="9">
         <f t="shared" si="25"/>
-        <v>184.70654320828808</v>
+        <v>9.8585390303996014</v>
       </c>
       <c r="S26" s="9">
         <f t="shared" si="25"/>
-        <v>192.08046635729772</v>
+        <v>3.2966995745350403</v>
       </c>
       <c r="T26" s="9">
         <f t="shared" si="25"/>
-        <v>199.36292895431208</v>
+        <v>-3.7280088927425936</v>
       </c>
       <c r="U26" s="9">
         <f t="shared" si="25"/>
-        <v>206.54072675904968</v>
+        <v>-11.23894629999384</v>
       </c>
     </row>
     <row r="27" spans="1:160" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2365,619 +2394,619 @@
       </c>
       <c r="G27" s="23">
         <f t="shared" ref="G27:H27" si="27">G25-G26</f>
-        <v>522.03345600000011</v>
+        <v>400.25222570445908</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="27"/>
-        <v>538.58875417600029</v>
+        <v>376.09864469687074</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" ref="I27:U27" si="28">I25-I26</f>
-        <v>546.7479165132163</v>
+        <v>327.73849648930684</v>
       </c>
       <c r="J27" s="23">
         <f t="shared" si="28"/>
-        <v>543.70396519677945</v>
+        <v>263.13710072672853</v>
       </c>
       <c r="K27" s="23">
         <f t="shared" si="28"/>
-        <v>525.82432323783905</v>
+        <v>178.24630103621493</v>
       </c>
       <c r="L27" s="23">
         <f t="shared" si="28"/>
-        <v>556.68754256957436</v>
+        <v>162.70860897225089</v>
       </c>
       <c r="M27" s="23">
         <f t="shared" si="28"/>
-        <v>587.46193386607399</v>
+        <v>145.85444766216901</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="28"/>
-        <v>618.11665545085611</v>
+        <v>127.6187736186001</v>
       </c>
       <c r="O27" s="23">
         <f t="shared" si="28"/>
-        <v>648.61821910279673</v>
+        <v>107.93305093643474</v>
       </c>
       <c r="P27" s="23">
         <f t="shared" si="28"/>
-        <v>678.93033994214773</v>
+        <v>86.725078527066088</v>
       </c>
       <c r="Q27" s="23">
         <f t="shared" si="28"/>
-        <v>709.01377825343866</v>
+        <v>63.918808623598672</v>
       </c>
       <c r="R27" s="23">
         <f t="shared" si="28"/>
-        <v>738.82617283315233</v>
+        <v>39.434156121598406</v>
       </c>
       <c r="S27" s="23">
         <f t="shared" si="28"/>
-        <v>768.32186542919089</v>
+        <v>13.186798298140161</v>
       </c>
       <c r="T27" s="23">
         <f t="shared" si="28"/>
-        <v>797.45171581724821</v>
+        <v>-14.912035570970374</v>
       </c>
       <c r="U27" s="23">
         <f t="shared" si="28"/>
-        <v>826.1629070361987</v>
+        <v>-44.955785199975352</v>
       </c>
       <c r="V27" s="23">
         <f>U27*($F$2+1)</f>
-        <v>809.63964889547469</v>
+        <v>-44.056669495975846</v>
       </c>
       <c r="W27" s="23">
         <f t="shared" ref="W27:CH27" si="29">V27*($F$2+1)</f>
-        <v>793.44685591756513</v>
+        <v>-43.175536106056327</v>
       </c>
       <c r="X27" s="23">
         <f t="shared" si="29"/>
-        <v>777.57791879921376</v>
+        <v>-42.3120253839352</v>
       </c>
       <c r="Y27" s="23">
         <f t="shared" si="29"/>
-        <v>762.02636042322945</v>
+        <v>-41.465784876256492</v>
       </c>
       <c r="Z27" s="23">
         <f t="shared" si="29"/>
-        <v>746.78583321476481</v>
+        <v>-40.63646917873136</v>
       </c>
       <c r="AA27" s="23">
         <f t="shared" si="29"/>
-        <v>731.85011655046947</v>
+        <v>-39.823739795156733</v>
       </c>
       <c r="AB27" s="23">
         <f t="shared" si="29"/>
-        <v>717.21311421946007</v>
+        <v>-39.027264999253596</v>
       </c>
       <c r="AC27" s="23">
         <f t="shared" si="29"/>
-        <v>702.86885193507089</v>
+        <v>-38.246719699268525</v>
       </c>
       <c r="AD27" s="23">
         <f t="shared" si="29"/>
-        <v>688.81147489636942</v>
+        <v>-37.481785305283154</v>
       </c>
       <c r="AE27" s="23">
         <f t="shared" si="29"/>
-        <v>675.03524539844204</v>
+        <v>-36.73214959917749</v>
       </c>
       <c r="AF27" s="23">
         <f t="shared" si="29"/>
-        <v>661.5345404904732</v>
+        <v>-35.997506607193941</v>
       </c>
       <c r="AG27" s="23">
         <f t="shared" si="29"/>
-        <v>648.30384968066369</v>
+        <v>-35.277556475050062</v>
       </c>
       <c r="AH27" s="23">
         <f t="shared" si="29"/>
-        <v>635.33777268705035</v>
+        <v>-34.572005345549059</v>
       </c>
       <c r="AI27" s="23">
         <f t="shared" si="29"/>
-        <v>622.63101723330931</v>
+        <v>-33.880565238638077</v>
       </c>
       <c r="AJ27" s="23">
         <f t="shared" si="29"/>
-        <v>610.17839688864308</v>
+        <v>-33.202953933865317</v>
       </c>
       <c r="AK27" s="23">
         <f t="shared" si="29"/>
-        <v>597.97482895087023</v>
+        <v>-32.538894855188012</v>
       </c>
       <c r="AL27" s="23">
         <f t="shared" si="29"/>
-        <v>586.01533237185276</v>
+        <v>-31.88811695808425</v>
       </c>
       <c r="AM27" s="23">
         <f t="shared" si="29"/>
-        <v>574.29502572441572</v>
+        <v>-31.250354618922564</v>
       </c>
       <c r="AN27" s="23">
         <f t="shared" si="29"/>
-        <v>562.8091252099274</v>
+        <v>-30.625347526544111</v>
       </c>
       <c r="AO27" s="23">
         <f t="shared" si="29"/>
-        <v>551.55294270572881</v>
+        <v>-30.012840576013229</v>
       </c>
       <c r="AP27" s="23">
         <f t="shared" si="29"/>
-        <v>540.52188385161423</v>
+        <v>-29.412583764492965</v>
       </c>
       <c r="AQ27" s="23">
         <f t="shared" si="29"/>
-        <v>529.71144617458197</v>
+        <v>-28.824332089203104</v>
       </c>
       <c r="AR27" s="23">
         <f t="shared" si="29"/>
-        <v>519.11721725109032</v>
+        <v>-28.247845447419042</v>
       </c>
       <c r="AS27" s="23">
         <f t="shared" si="29"/>
-        <v>508.73487290606852</v>
+        <v>-27.68288853847066</v>
       </c>
       <c r="AT27" s="23">
         <f t="shared" si="29"/>
-        <v>498.56017544794713</v>
+        <v>-27.129230767701248</v>
       </c>
       <c r="AU27" s="23">
         <f t="shared" si="29"/>
-        <v>488.58897193898815</v>
+        <v>-26.586646152347221</v>
       </c>
       <c r="AV27" s="23">
         <f t="shared" si="29"/>
-        <v>478.81719250020836</v>
+        <v>-26.054913229300276</v>
       </c>
       <c r="AW27" s="23">
         <f t="shared" si="29"/>
-        <v>469.24084865020421</v>
+        <v>-25.533814964714271</v>
       </c>
       <c r="AX27" s="23">
         <f t="shared" si="29"/>
-        <v>459.85603167720012</v>
+        <v>-25.023138665419985</v>
       </c>
       <c r="AY27" s="23">
         <f t="shared" si="29"/>
-        <v>450.65891104365613</v>
+        <v>-24.522675892111586</v>
       </c>
       <c r="AZ27" s="23">
         <f t="shared" si="29"/>
-        <v>441.64573282278297</v>
+        <v>-24.032222374269352</v>
       </c>
       <c r="BA27" s="23">
         <f t="shared" si="29"/>
-        <v>432.8128181663273</v>
+        <v>-23.551577926783963</v>
       </c>
       <c r="BB27" s="23">
         <f t="shared" si="29"/>
-        <v>424.15656180300073</v>
+        <v>-23.080546368248285</v>
       </c>
       <c r="BC27" s="23">
         <f t="shared" si="29"/>
-        <v>415.67343056694068</v>
+        <v>-22.61893544088332</v>
       </c>
       <c r="BD27" s="23">
         <f t="shared" si="29"/>
-        <v>407.35996195560188</v>
+        <v>-22.166556732065654</v>
       </c>
       <c r="BE27" s="23">
         <f t="shared" si="29"/>
-        <v>399.21276271648981</v>
+        <v>-21.723225597424342</v>
       </c>
       <c r="BF27" s="23">
         <f t="shared" si="29"/>
-        <v>391.22850746216</v>
+        <v>-21.288761085475855</v>
       </c>
       <c r="BG27" s="23">
         <f t="shared" si="29"/>
-        <v>383.40393731291681</v>
+        <v>-20.862985863766337</v>
       </c>
       <c r="BH27" s="23">
         <f t="shared" si="29"/>
-        <v>375.73585856665846</v>
+        <v>-20.445726146491008</v>
       </c>
       <c r="BI27" s="23">
         <f t="shared" si="29"/>
-        <v>368.22114139532528</v>
+        <v>-20.036811623561189</v>
       </c>
       <c r="BJ27" s="23">
         <f t="shared" si="29"/>
-        <v>360.85671856741874</v>
+        <v>-19.636075391089964</v>
       </c>
       <c r="BK27" s="23">
         <f t="shared" si="29"/>
-        <v>353.63958419607036</v>
+        <v>-19.243353883268163</v>
       </c>
       <c r="BL27" s="23">
         <f t="shared" si="29"/>
-        <v>346.56679251214894</v>
+        <v>-18.858486805602801</v>
       </c>
       <c r="BM27" s="23">
         <f t="shared" si="29"/>
-        <v>339.63545666190595</v>
+        <v>-18.481317069490746</v>
       </c>
       <c r="BN27" s="23">
         <f t="shared" si="29"/>
-        <v>332.84274752866781</v>
+        <v>-18.111690728100932</v>
       </c>
       <c r="BO27" s="23">
         <f t="shared" si="29"/>
-        <v>326.18589257809447</v>
+        <v>-17.749456913538914</v>
       </c>
       <c r="BP27" s="23">
         <f t="shared" si="29"/>
-        <v>319.66217472653256</v>
+        <v>-17.394467775268136</v>
       </c>
       <c r="BQ27" s="23">
         <f t="shared" si="29"/>
-        <v>313.26893123200188</v>
+        <v>-17.046578419762774</v>
       </c>
       <c r="BR27" s="23">
         <f t="shared" si="29"/>
-        <v>307.00355260736183</v>
+        <v>-16.705646851367518</v>
       </c>
       <c r="BS27" s="23">
         <f t="shared" si="29"/>
-        <v>300.86348155521461</v>
+        <v>-16.371533914340169</v>
       </c>
       <c r="BT27" s="23">
         <f t="shared" si="29"/>
-        <v>294.84621192411032</v>
+        <v>-16.044103236053367</v>
       </c>
       <c r="BU27" s="23">
         <f t="shared" si="29"/>
-        <v>288.94928768562812</v>
+        <v>-15.7232211713323</v>
       </c>
       <c r="BV27" s="23">
         <f t="shared" si="29"/>
-        <v>283.17030193191556</v>
+        <v>-15.408756747905654</v>
       </c>
       <c r="BW27" s="23">
         <f t="shared" si="29"/>
-        <v>277.50689589327726</v>
+        <v>-15.100581612947542</v>
       </c>
       <c r="BX27" s="23">
         <f t="shared" si="29"/>
-        <v>271.95675797541173</v>
+        <v>-14.79856998068859</v>
       </c>
       <c r="BY27" s="23">
         <f t="shared" si="29"/>
-        <v>266.51762281590351</v>
+        <v>-14.502598581074817</v>
       </c>
       <c r="BZ27" s="23">
         <f t="shared" si="29"/>
-        <v>261.18727035958545</v>
+        <v>-14.212546609453321</v>
       </c>
       <c r="CA27" s="23">
         <f t="shared" si="29"/>
-        <v>255.96352495239375</v>
+        <v>-13.928295677264254</v>
       </c>
       <c r="CB27" s="23">
         <f t="shared" si="29"/>
-        <v>250.84425445334588</v>
+        <v>-13.649729763718968</v>
       </c>
       <c r="CC27" s="23">
         <f t="shared" si="29"/>
-        <v>245.82736936427895</v>
+        <v>-13.376735168444588</v>
       </c>
       <c r="CD27" s="23">
         <f t="shared" si="29"/>
-        <v>240.91082197699336</v>
+        <v>-13.109200465075697</v>
       </c>
       <c r="CE27" s="23">
         <f t="shared" si="29"/>
-        <v>236.09260553745349</v>
+        <v>-12.847016455774183</v>
       </c>
       <c r="CF27" s="23">
         <f t="shared" si="29"/>
-        <v>231.37075342670443</v>
+        <v>-12.590076126658699</v>
       </c>
       <c r="CG27" s="23">
         <f t="shared" si="29"/>
-        <v>226.74333835817032</v>
+        <v>-12.338274604125525</v>
       </c>
       <c r="CH27" s="23">
         <f t="shared" si="29"/>
-        <v>222.20847159100691</v>
+        <v>-12.091509112043013</v>
       </c>
       <c r="CI27" s="23">
         <f t="shared" ref="CI27:DQ27" si="30">CH27*($F$2+1)</f>
-        <v>217.76430215918677</v>
+        <v>-11.849678929802153</v>
       </c>
       <c r="CJ27" s="23">
         <f t="shared" si="30"/>
-        <v>213.40901611600302</v>
+        <v>-11.612685351206109</v>
       </c>
       <c r="CK27" s="23">
         <f t="shared" si="30"/>
-        <v>209.14083579368295</v>
+        <v>-11.380431644181986</v>
       </c>
       <c r="CL27" s="23">
         <f t="shared" si="30"/>
-        <v>204.9580190778093</v>
+        <v>-11.152823011298345</v>
       </c>
       <c r="CM27" s="23">
         <f t="shared" si="30"/>
-        <v>200.85885869625309</v>
+        <v>-10.929766551072378</v>
       </c>
       <c r="CN27" s="23">
         <f t="shared" si="30"/>
-        <v>196.84168152232803</v>
+        <v>-10.711171220050931</v>
       </c>
       <c r="CO27" s="23">
         <f t="shared" si="30"/>
-        <v>192.90484789188147</v>
+        <v>-10.496947795649913</v>
       </c>
       <c r="CP27" s="23">
         <f t="shared" si="30"/>
-        <v>189.04675093404384</v>
+        <v>-10.287008839736915</v>
       </c>
       <c r="CQ27" s="23">
         <f t="shared" si="30"/>
-        <v>185.26581591536296</v>
+        <v>-10.081268662942175</v>
       </c>
       <c r="CR27" s="23">
         <f t="shared" si="30"/>
-        <v>181.5604995970557</v>
+        <v>-9.8796432896833313</v>
       </c>
       <c r="CS27" s="23">
         <f t="shared" si="30"/>
-        <v>177.92928960511458</v>
+        <v>-9.682050423889665</v>
       </c>
       <c r="CT27" s="23">
         <f t="shared" si="30"/>
-        <v>174.37070381301228</v>
+        <v>-9.488409415411871</v>
       </c>
       <c r="CU27" s="23">
         <f t="shared" si="30"/>
-        <v>170.88328973675203</v>
+        <v>-9.2986412271036336</v>
       </c>
       <c r="CV27" s="23">
         <f t="shared" si="30"/>
-        <v>167.46562394201698</v>
+        <v>-9.1126684025615603</v>
       </c>
       <c r="CW27" s="23">
         <f t="shared" si="30"/>
-        <v>164.11631146317663</v>
+        <v>-8.9304150345103288</v>
       </c>
       <c r="CX27" s="23">
         <f t="shared" si="30"/>
-        <v>160.8339852339131</v>
+        <v>-8.7518067338201213</v>
       </c>
       <c r="CY27" s="23">
         <f t="shared" si="30"/>
-        <v>157.61730552923484</v>
+        <v>-8.5767705991437193</v>
       </c>
       <c r="CZ27" s="23">
         <f t="shared" si="30"/>
-        <v>154.46495941865015</v>
+        <v>-8.4052351871608444</v>
       </c>
       <c r="DA27" s="23">
         <f t="shared" si="30"/>
-        <v>151.37566023027713</v>
+        <v>-8.2371304834176282</v>
       </c>
       <c r="DB27" s="23">
         <f t="shared" si="30"/>
-        <v>148.34814702567158</v>
+        <v>-8.0723878737492747</v>
       </c>
       <c r="DC27" s="23">
         <f t="shared" si="30"/>
-        <v>145.38118408515814</v>
+        <v>-7.9109401162742889</v>
       </c>
       <c r="DD27" s="23">
         <f t="shared" si="30"/>
-        <v>142.47356040345497</v>
+        <v>-7.7527213139488032</v>
       </c>
       <c r="DE27" s="23">
         <f t="shared" si="30"/>
-        <v>139.62408919538586</v>
+        <v>-7.5976668876698268</v>
       </c>
       <c r="DF27" s="23">
         <f t="shared" si="30"/>
-        <v>136.83160741147813</v>
+        <v>-7.4457135499164302</v>
       </c>
       <c r="DG27" s="23">
         <f t="shared" si="30"/>
-        <v>134.09497526324856</v>
+        <v>-7.2967992789181011</v>
       </c>
       <c r="DH27" s="23">
         <f t="shared" si="30"/>
-        <v>131.41307575798359</v>
+        <v>-7.1508632933397394</v>
       </c>
       <c r="DI27" s="23">
         <f t="shared" si="30"/>
-        <v>128.78481424282393</v>
+        <v>-7.0078460274729446</v>
       </c>
       <c r="DJ27" s="23">
         <f t="shared" si="30"/>
-        <v>126.20911795796745</v>
+        <v>-6.8676891069234856</v>
       </c>
       <c r="DK27" s="23">
         <f t="shared" si="30"/>
-        <v>123.6849355988081</v>
+        <v>-6.7303353247850159</v>
       </c>
       <c r="DL27" s="23">
         <f t="shared" si="30"/>
-        <v>121.21123688683193</v>
+        <v>-6.5957286182893151</v>
       </c>
       <c r="DM27" s="23">
         <f t="shared" si="30"/>
-        <v>118.78701214909529</v>
+        <v>-6.4638140459235283</v>
       </c>
       <c r="DN27" s="23">
         <f t="shared" si="30"/>
-        <v>116.41127190611338</v>
+        <v>-6.3345377650050576</v>
       </c>
       <c r="DO27" s="23">
         <f t="shared" si="30"/>
-        <v>114.08304646799111</v>
+        <v>-6.2078470097049561</v>
       </c>
       <c r="DP27" s="23">
         <f t="shared" si="30"/>
-        <v>111.80138553863128</v>
+        <v>-6.0836900695108564</v>
       </c>
       <c r="DQ27" s="23">
         <f t="shared" si="30"/>
-        <v>109.56535782785865</v>
+        <v>-5.9620162681206388</v>
       </c>
       <c r="DR27" s="23">
         <f t="shared" ref="DR27" si="31">DQ27*($F$2+1)</f>
-        <v>107.37405067130148</v>
+        <v>-5.8427759427582258</v>
       </c>
       <c r="DS27" s="23">
         <f t="shared" ref="DS27" si="32">DR27*($F$2+1)</f>
-        <v>105.22656965787544</v>
+        <v>-5.7259204239030614</v>
       </c>
       <c r="DT27" s="23">
         <f t="shared" ref="DT27" si="33">DS27*($F$2+1)</f>
-        <v>103.12203826471793</v>
+        <v>-5.6114020154249999</v>
       </c>
       <c r="DU27" s="23">
         <f t="shared" ref="DU27" si="34">DT27*($F$2+1)</f>
-        <v>101.05959749942357</v>
+        <v>-5.4991739751164994</v>
       </c>
       <c r="DV27" s="23">
         <f t="shared" ref="DV27" si="35">DU27*($F$2+1)</f>
-        <v>99.038405549435097</v>
+        <v>-5.3891904956141694</v>
       </c>
       <c r="DW27" s="23">
         <f t="shared" ref="DW27" si="36">DV27*($F$2+1)</f>
-        <v>97.057637438446392</v>
+        <v>-5.281406685701886</v>
       </c>
       <c r="DX27" s="23">
         <f t="shared" ref="DX27" si="37">DW27*($F$2+1)</f>
-        <v>95.116484689677463</v>
+        <v>-5.1757785519878485</v>
       </c>
       <c r="DY27" s="23">
         <f t="shared" ref="DY27" si="38">DX27*($F$2+1)</f>
-        <v>93.214154995883916</v>
+        <v>-5.072262980948091</v>
       </c>
       <c r="DZ27" s="23">
         <f t="shared" ref="DZ27" si="39">DY27*($F$2+1)</f>
-        <v>91.349871895966231</v>
+        <v>-4.9708177213291291</v>
       </c>
       <c r="EA27" s="23">
         <f t="shared" ref="EA27" si="40">DZ27*($F$2+1)</f>
-        <v>89.5228744580469</v>
+        <v>-4.8714013669025462</v>
       </c>
       <c r="EB27" s="23">
         <f t="shared" ref="EB27" si="41">EA27*($F$2+1)</f>
-        <v>87.732416968885957</v>
+        <v>-4.7739733395644954</v>
       </c>
       <c r="EC27" s="23">
         <f t="shared" ref="EC27" si="42">EB27*($F$2+1)</f>
-        <v>85.977768629508233</v>
+        <v>-4.6784938727732053</v>
       </c>
       <c r="ED27" s="23">
         <f t="shared" ref="ED27" si="43">EC27*($F$2+1)</f>
-        <v>84.258213256918069</v>
+        <v>-4.584923995317741</v>
       </c>
       <c r="EE27" s="23">
         <f t="shared" ref="EE27" si="44">ED27*($F$2+1)</f>
-        <v>82.5730489917797</v>
+        <v>-4.4932255154113863</v>
       </c>
       <c r="EF27" s="23">
         <f t="shared" ref="EF27" si="45">EE27*($F$2+1)</f>
-        <v>80.92158801194411</v>
+        <v>-4.4033610051031582</v>
       </c>
       <c r="EG27" s="23">
         <f t="shared" ref="EG27" si="46">EF27*($F$2+1)</f>
-        <v>79.303156251705232</v>
+        <v>-4.3152937850010948</v>
       </c>
       <c r="EH27" s="23">
         <f t="shared" ref="EH27" si="47">EG27*($F$2+1)</f>
-        <v>77.717093126671131</v>
+        <v>-4.2289879093010727</v>
       </c>
       <c r="EI27" s="23">
         <f t="shared" ref="EI27" si="48">EH27*($F$2+1)</f>
-        <v>76.162751264137711</v>
+        <v>-4.1444081511150515</v>
       </c>
       <c r="EJ27" s="23">
         <f t="shared" ref="EJ27" si="49">EI27*($F$2+1)</f>
-        <v>74.63949623885496</v>
+        <v>-4.0615199880927504</v>
       </c>
       <c r="EK27" s="23">
         <f t="shared" ref="EK27" si="50">EJ27*($F$2+1)</f>
-        <v>73.146706314077861</v>
+        <v>-3.9802895883308955</v>
       </c>
       <c r="EL27" s="23">
         <f t="shared" ref="EL27" si="51">EK27*($F$2+1)</f>
-        <v>71.683772187796308</v>
+        <v>-3.9006837965642776</v>
       </c>
       <c r="EM27" s="23">
         <f t="shared" ref="EM27" si="52">EL27*($F$2+1)</f>
-        <v>70.250096744040377</v>
+        <v>-3.8226701206329921</v>
       </c>
       <c r="EN27" s="23">
         <f t="shared" ref="EN27" si="53">EM27*($F$2+1)</f>
-        <v>68.845094809159562</v>
+        <v>-3.7462167182203321</v>
       </c>
       <c r="EO27" s="23">
         <f t="shared" ref="EO27" si="54">EN27*($F$2+1)</f>
-        <v>67.468192912976363</v>
+        <v>-3.6712923838559255</v>
       </c>
       <c r="EP27" s="23">
         <f t="shared" ref="EP27" si="55">EO27*($F$2+1)</f>
-        <v>66.118829054716841</v>
+        <v>-3.5978665361788069</v>
       </c>
       <c r="EQ27" s="23">
         <f t="shared" ref="EQ27" si="56">EP27*($F$2+1)</f>
-        <v>64.796452473622509</v>
+        <v>-3.5259092054552306</v>
       </c>
       <c r="ER27" s="23">
         <f t="shared" ref="ER27" si="57">EQ27*($F$2+1)</f>
-        <v>63.50052342415006</v>
+        <v>-3.4553910213461259</v>
       </c>
       <c r="ES27" s="23">
         <f t="shared" ref="ES27" si="58">ER27*($F$2+1)</f>
-        <v>62.230512955667059</v>
+        <v>-3.3862832009192032</v>
       </c>
       <c r="ET27" s="23">
         <f t="shared" ref="ET27" si="59">ES27*($F$2+1)</f>
-        <v>60.985902696553715</v>
+        <v>-3.3185575369008191</v>
       </c>
       <c r="EU27" s="23">
         <f t="shared" ref="EU27" si="60">ET27*($F$2+1)</f>
-        <v>59.76618464262264</v>
+        <v>-3.2521863861628026</v>
       </c>
       <c r="EV27" s="23">
         <f t="shared" ref="EV27" si="61">EU27*($F$2+1)</f>
-        <v>58.570860949770186</v>
+        <v>-3.1871426584395466</v>
       </c>
       <c r="EW27" s="23">
         <f t="shared" ref="EW27" si="62">EV27*($F$2+1)</f>
-        <v>57.399443730774784</v>
+        <v>-3.1233998052707554</v>
       </c>
       <c r="EX27" s="23">
         <f t="shared" ref="EX27" si="63">EW27*($F$2+1)</f>
-        <v>56.251454856159285</v>
+        <v>-3.0609318091653401</v>
       </c>
       <c r="EY27" s="23">
         <f t="shared" ref="EY27" si="64">EX27*($F$2+1)</f>
-        <v>55.126425759036096</v>
+        <v>-2.9997131729820334</v>
       </c>
       <c r="EZ27" s="23">
         <f t="shared" ref="EZ27" si="65">EY27*($F$2+1)</f>
-        <v>54.023897243855373</v>
+        <v>-2.9397189095223926</v>
       </c>
       <c r="FA27" s="23">
         <f t="shared" ref="FA27" si="66">EZ27*($F$2+1)</f>
-        <v>52.943419298978263</v>
+        <v>-2.8809245313319445</v>
       </c>
       <c r="FB27" s="23">
         <f t="shared" ref="FB27" si="67">FA27*($F$2+1)</f>
-        <v>51.884550912998698</v>
+        <v>-2.8233060407053054</v>
       </c>
       <c r="FC27" s="23">
         <f t="shared" ref="FC27" si="68">FB27*($F$2+1)</f>
-        <v>50.846859894738721</v>
+        <v>-2.7668399198911993</v>
       </c>
       <c r="FD27" s="23">
         <f t="shared" ref="FD27" si="69">FC27*($F$2+1)</f>
-        <v>49.829922696843944</v>
+        <v>-2.7115031214933754</v>
       </c>
     </row>
     <row r="28" spans="1:160" x14ac:dyDescent="0.15">
@@ -3006,63 +3035,63 @@
       </c>
       <c r="G28" s="12">
         <f t="shared" ref="G28:H28" si="70">G27/G29</f>
-        <v>2.3012883567561855</v>
+        <v>1.7644382293755139</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" si="70"/>
-        <v>2.3742693400574857</v>
+        <v>1.6579616154576307</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" ref="I28:U28" si="71">I27/I29</f>
-        <v>2.4102375046869935</v>
+        <v>1.4447748077502902</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="71"/>
-        <v>2.3968188058612063</v>
+        <v>1.1599914510709057</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="71"/>
-        <v>2.3179996968746761</v>
+        <v>0.7857659935295398</v>
       </c>
       <c r="L28" s="12">
         <f t="shared" si="71"/>
-        <v>2.4540545157446281</v>
+        <v>0.7172709393779465</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="71"/>
-        <v>2.5897177525791912</v>
+        <v>0.64297247298658555</v>
       </c>
       <c r="N28" s="12">
         <f t="shared" si="71"/>
-        <v>2.7248534475271824</v>
+        <v>0.56258386211934241</v>
       </c>
       <c r="O28" s="12">
         <f t="shared" si="71"/>
-        <v>2.8593139739327325</v>
+        <v>0.47580297885963369</v>
       </c>
       <c r="P28" s="12">
         <f t="shared" si="71"/>
-        <v>2.9929393765854408</v>
+        <v>0.38231153800438228</v>
       </c>
       <c r="Q28" s="12">
         <f t="shared" si="71"/>
-        <v>3.1255566744257668</v>
+        <v>0.28177429697765283</v>
       </c>
       <c r="R28" s="12">
         <f t="shared" si="71"/>
-        <v>3.2569791258889471</v>
+        <v>0.17383821534445879</v>
       </c>
       <c r="S28" s="12">
         <f t="shared" si="71"/>
-        <v>3.3870054549787119</v>
+        <v>5.8131571909065975E-2</v>
       </c>
       <c r="T28" s="12">
         <f t="shared" si="71"/>
-        <v>3.5154190360655262</v>
+        <v>-6.5736962718742284E-2</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" si="71"/>
-        <v>3.6419870353026695</v>
+        <v>-0.19817930031200012</v>
       </c>
     </row>
     <row r="29" spans="1:160" x14ac:dyDescent="0.15">
@@ -3195,63 +3224,63 @@
       </c>
       <c r="G31" s="13">
         <f>G16/F16-1</f>
-        <v>4.4999999999999929E-2</v>
+        <v>-6.603868128732282E-2</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="87"/>
-        <v>4.5000000000000151E-2</v>
+        <v>-2.5000000000000577E-3</v>
       </c>
       <c r="I31" s="13">
         <f t="shared" si="87"/>
-        <v>4.4999999999999929E-2</v>
+        <v>-2.4999999999999467E-3</v>
       </c>
       <c r="J31" s="13">
         <f t="shared" si="87"/>
-        <v>4.4999999999999929E-2</v>
+        <v>-2.4999999999999467E-3</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="87"/>
-        <v>4.5000000000000151E-2</v>
+        <v>-2.4999999999999467E-3</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="N31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="O31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.000000000000012E-2</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="R31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-9.9999999999998979E-3</v>
       </c>
       <c r="S31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.000000000000012E-2</v>
       </c>
       <c r="T31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.000000000000012E-2</v>
       </c>
       <c r="U31" s="13">
         <f t="shared" si="87"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.000000000000012E-2</v>
       </c>
     </row>
     <row r="32" spans="1:160" x14ac:dyDescent="0.15">
@@ -3277,7 +3306,7 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="88"/>
-        <v>0.10000000000000009</v>
+        <v>0.14143588406675289</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="88"/>
@@ -3359,23 +3388,23 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="90"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-8.0687103981247565E-2</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="90"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="90"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="90"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="90"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="L33" s="14">
         <f t="shared" si="90"/>
@@ -3387,7 +3416,7 @@
       </c>
       <c r="N33" s="14">
         <f t="shared" si="90"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="O33" s="14">
         <f t="shared" si="90"/>
@@ -3399,7 +3428,7 @@
       </c>
       <c r="Q33" s="14">
         <f t="shared" si="90"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>-2.0000000000000129E-2</v>
       </c>
       <c r="R33" s="14">
         <f t="shared" si="90"/>
@@ -3407,7 +3436,7 @@
       </c>
       <c r="S33" s="14">
         <f t="shared" si="90"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="T33" s="14">
         <f t="shared" si="90"/>
@@ -3415,7 +3444,7 @@
       </c>
       <c r="U33" s="14">
         <f t="shared" si="90"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
@@ -3441,7 +3470,7 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="91"/>
-        <v>0.30000000000000004</v>
+        <v>0.39776490524660235</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="91"/>
@@ -3461,7 +3490,7 @@
       </c>
       <c r="L34" s="14">
         <f t="shared" si="91"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="M34" s="14">
         <f t="shared" si="91"/>
@@ -3469,7 +3498,7 @@
       </c>
       <c r="N34" s="14">
         <f t="shared" si="91"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="O34" s="14">
         <f t="shared" si="91"/>
@@ -3477,7 +3506,7 @@
       </c>
       <c r="P34" s="14">
         <f t="shared" si="91"/>
-        <v>-1.9999999999999907E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q34" s="14">
         <f t="shared" si="91"/>
@@ -3485,7 +3514,7 @@
       </c>
       <c r="R34" s="14">
         <f t="shared" si="91"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>-1.9999999999999907E-2</v>
       </c>
       <c r="S34" s="14">
         <f t="shared" si="91"/>
@@ -3497,89 +3526,89 @@
       </c>
       <c r="U34" s="14">
         <f t="shared" si="91"/>
-        <v>-2.0000000000000129E-2</v>
+        <v>-1.9999999999999907E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64">
+        <v>101</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63">
         <f>C22/B22-1</f>
         <v>0.15132963394855681</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="63">
         <f t="shared" ref="D35:U35" si="92">D22/C22-1</f>
         <v>0.48795508587294711</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="63">
         <f t="shared" si="92"/>
         <v>0.62662911128715182</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="63">
         <f t="shared" si="92"/>
         <v>8.0386625397124156E-3</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="63">
         <f t="shared" si="92"/>
-        <v>5.5098265399485369E-2</v>
-      </c>
-      <c r="H35" s="64">
+        <v>4.6056798892031514E-2</v>
+      </c>
+      <c r="H35" s="63">
         <f t="shared" si="92"/>
-        <v>6.4827289020576107E-2</v>
-      </c>
-      <c r="I35" s="64">
+        <v>5.5793134907058839E-2</v>
+      </c>
+      <c r="I35" s="63">
         <f t="shared" si="92"/>
-        <v>7.560518719635767E-2</v>
-      </c>
-      <c r="J35" s="64">
+        <v>6.9764534334242345E-2</v>
+      </c>
+      <c r="J35" s="63">
         <f t="shared" si="92"/>
-        <v>8.7413411699675647E-2</v>
-      </c>
-      <c r="K35" s="64">
+        <v>8.4744863199987641E-2</v>
+      </c>
+      <c r="K35" s="63">
         <f t="shared" si="92"/>
-        <v>0.10018116560585244</v>
-      </c>
-      <c r="L35" s="64">
+        <v>0.10053613307195763</v>
+      </c>
+      <c r="L35" s="63">
         <f t="shared" si="92"/>
-        <v>6.4043992137259309E-3</v>
-      </c>
-      <c r="M35" s="64">
+        <v>8.0843762755347104E-3</v>
+      </c>
+      <c r="M35" s="63">
         <f t="shared" si="92"/>
-        <v>7.5481895707856239E-3</v>
-      </c>
-      <c r="N35" s="64">
+        <v>9.2521100250158028E-3</v>
+      </c>
+      <c r="N35" s="63">
         <f t="shared" si="92"/>
-        <v>8.7088988385231048E-3</v>
-      </c>
-      <c r="O35" s="64">
+        <v>1.0433144722883148E-2</v>
+      </c>
+      <c r="O35" s="63">
         <f t="shared" si="92"/>
-        <v>9.8840862960158926E-3</v>
-      </c>
-      <c r="P35" s="64">
+        <v>1.162485526718493E-2</v>
+      </c>
+      <c r="P35" s="63">
         <f t="shared" si="92"/>
-        <v>1.1071180382595802E-2</v>
-      </c>
-      <c r="Q35" s="64">
+        <v>1.2824517762341614E-2</v>
+      </c>
+      <c r="Q35" s="63">
         <f t="shared" si="92"/>
-        <v>1.2267500087758565E-2</v>
-      </c>
-      <c r="R35" s="64">
+        <v>1.4029333854007398E-2</v>
+      </c>
+      <c r="R35" s="63">
         <f t="shared" si="92"/>
-        <v>1.3470278448344253E-2</v>
-      </c>
-      <c r="S35" s="64">
+        <v>1.5236456534157616E-2</v>
+      </c>
+      <c r="S35" s="63">
         <f t="shared" si="92"/>
-        <v>1.4676687731353777E-2</v>
-      </c>
-      <c r="T35" s="64">
+        <v>1.6443016917626618E-2</v>
+      </c>
+      <c r="T35" s="63">
         <f t="shared" si="92"/>
-        <v>1.5883865824619425E-2</v>
-      </c>
-      <c r="U35" s="64">
+        <v>1.7646151458197368E-2</v>
+      </c>
+      <c r="U35" s="63">
         <f t="shared" si="92"/>
-        <v>1.7088943316632577E-2</v>
+        <v>1.8843029057267424E-2</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
@@ -3630,63 +3659,63 @@
       </c>
       <c r="G37" s="15">
         <f t="shared" ref="G37:U37" si="93">IFERROR(G18/G16,0)</f>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="M37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="O37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="P37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="Q37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909699</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="R37" s="15">
         <f t="shared" si="93"/>
-        <v>0.8138255678790971</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="S37" s="15">
         <f t="shared" si="93"/>
-        <v>0.8138255678790971</v>
+        <v>0.82226155441047466</v>
       </c>
       <c r="T37" s="15">
         <f t="shared" si="93"/>
-        <v>0.8138255678790971</v>
+        <v>0.82226155441047455</v>
       </c>
       <c r="U37" s="15">
         <f t="shared" si="93"/>
-        <v>0.81382556787909721</v>
+        <v>0.82226155441047455</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
@@ -3715,63 +3744,63 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="94"/>
-        <v>0.33460307138176287</v>
+        <v>0.29065912682607392</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="94"/>
-        <v>0.32551055181887811</v>
+        <v>0.25959268870266788</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="94"/>
-        <v>0.31120914274967676</v>
+        <v>0.21882977786081226</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="94"/>
-        <v>0.29080945149031456</v>
+        <v>0.16605150939404451</v>
       </c>
       <c r="K38" s="14">
         <f t="shared" si="94"/>
-        <v>0.26319161519081308</v>
+        <v>9.8268706866256827E-2</v>
       </c>
       <c r="L38" s="14">
         <f t="shared" si="94"/>
-        <v>0.27053102636739934</v>
+        <v>8.5043495678594691E-2</v>
       </c>
       <c r="M38" s="14">
         <f t="shared" si="94"/>
-        <v>0.2771633799341941</v>
+        <v>7.0707128830983859E-2</v>
       </c>
       <c r="N38" s="14">
         <f t="shared" si="94"/>
-        <v>0.28310407312402297</v>
+        <v>5.5195391108772578E-2</v>
       </c>
       <c r="O38" s="14">
         <f t="shared" si="94"/>
-        <v>0.28836753669440707</v>
+        <v>3.8440143874677445E-2</v>
       </c>
       <c r="P38" s="14">
         <f t="shared" si="94"/>
-        <v>0.29296726216201929</v>
+        <v>2.0369087604699757E-2</v>
       </c>
       <c r="Q38" s="14">
         <f t="shared" si="94"/>
-        <v>0.2969158276553992</v>
+        <v>9.0551002905369824E-4</v>
       </c>
       <c r="R38" s="14">
         <f t="shared" si="94"/>
-        <v>0.30022492243088894</v>
+        <v>-2.0031980994278973E-2</v>
       </c>
       <c r="S38" s="14">
         <f t="shared" si="94"/>
-        <v>0.30290537009471158</v>
+        <v>-4.2529740798637979E-2</v>
       </c>
       <c r="T38" s="14">
         <f t="shared" si="94"/>
-        <v>0.30496715057215518</v>
+        <v>-6.6679388401751083E-2</v>
       </c>
       <c r="U38" s="14">
         <f t="shared" si="94"/>
-        <v>0.30641942086292889</v>
+        <v>-9.2578125213597498E-2</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
@@ -3800,7 +3829,7 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="95"/>
-        <v>0.2</v>
+        <v>0.23848315021483824</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="95"/>
@@ -3816,7 +3845,7 @@
       </c>
       <c r="K39" s="14">
         <f t="shared" si="95"/>
-        <v>0.2</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" si="95"/>
@@ -3907,63 +3936,63 @@
       </c>
       <c r="G41" s="10">
         <f t="shared" ref="G41:U41" si="96">F41+G27</f>
-        <v>2271.0334560000001</v>
+        <v>2149.2522257044593</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="96"/>
-        <v>2809.6222101760004</v>
+        <v>2525.3508704013302</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="96"/>
-        <v>3356.3701266892167</v>
+        <v>2853.0893668906369</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="96"/>
-        <v>3900.074091885996</v>
+        <v>3116.2264676173654</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" si="96"/>
-        <v>4425.8984151238346</v>
+        <v>3294.4727686535803</v>
       </c>
       <c r="L41" s="10">
         <f t="shared" si="96"/>
-        <v>4982.585957693409</v>
+        <v>3457.1813776258314</v>
       </c>
       <c r="M41" s="10">
         <f t="shared" si="96"/>
-        <v>5570.0478915594831</v>
+        <v>3603.0358252880005</v>
       </c>
       <c r="N41" s="10">
         <f t="shared" si="96"/>
-        <v>6188.1645470103394</v>
+        <v>3730.6545989066008</v>
       </c>
       <c r="O41" s="10">
         <f t="shared" si="96"/>
-        <v>6836.7827661131359</v>
+        <v>3838.5876498430357</v>
       </c>
       <c r="P41" s="10">
         <f t="shared" si="96"/>
-        <v>7515.7131060552838</v>
+        <v>3925.3127283701019</v>
       </c>
       <c r="Q41" s="10">
         <f t="shared" si="96"/>
-        <v>8224.7268843087222</v>
+        <v>3989.2315369937005</v>
       </c>
       <c r="R41" s="10">
         <f t="shared" si="96"/>
-        <v>8963.5530571418749</v>
+        <v>4028.6656931152988</v>
       </c>
       <c r="S41" s="10">
         <f t="shared" si="96"/>
-        <v>9731.8749225710653</v>
+        <v>4041.8524914134391</v>
       </c>
       <c r="T41" s="10">
         <f t="shared" si="96"/>
-        <v>10529.326638388313</v>
+        <v>4026.9404558424685</v>
       </c>
       <c r="U41" s="10">
         <f t="shared" si="96"/>
-        <v>11355.489545424512</v>
+        <v>3981.9846706424933</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
@@ -4241,23 +4270,23 @@
       </c>
       <c r="G60" s="18">
         <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="H60" s="18">
         <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="I60" s="18">
         <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J60" s="18">
         <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K60" s="18">
         <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -4282,7 +4311,7 @@
       </c>
       <c r="G61" s="18">
         <f t="shared" si="101"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>-0.11051302979745048</v>
       </c>
       <c r="H61" s="18">
         <f t="shared" si="101"/>
@@ -4294,7 +4323,7 @@
       </c>
       <c r="J61" s="18">
         <f t="shared" si="101"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>-4.9999999999999933E-2</v>
       </c>
       <c r="K61" s="18">
         <f t="shared" si="101"/>
@@ -4306,23 +4335,23 @@
         <v>65</v>
       </c>
       <c r="B63" s="1">
-        <f>Reports!E54</f>
+        <f>Reports!E57</f>
         <v>236</v>
       </c>
       <c r="C63" s="1">
-        <f>Reports!I54</f>
+        <f>Reports!I57</f>
         <v>313</v>
       </c>
       <c r="D63" s="1">
-        <f>Reports!M54</f>
+        <f>Reports!M57</f>
         <v>392</v>
       </c>
       <c r="E63" s="1">
-        <f>Reports!Q54</f>
+        <f>Reports!Q57</f>
         <v>462</v>
       </c>
       <c r="F63" s="1">
-        <f>Reports!U54</f>
+        <f>Reports!U57</f>
         <v>516</v>
       </c>
     </row>
@@ -4362,13 +4391,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T45" sqref="T45"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4454,11 +4483,17 @@
         <v>95</v>
       </c>
       <c r="V1" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
+      <c r="X1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -4522,16 +4557,20 @@
       <c r="U2" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="68">
+      <c r="V2" s="67">
         <v>43921</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
+      <c r="W2" s="75">
+        <v>44012</v>
+      </c>
+      <c r="X2" s="75">
+        <v>44104</v>
+      </c>
       <c r="Y2" s="26"/>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="27">
         <v>79.16</v>
@@ -4593,8 +4632,18 @@
       <c r="U3" s="7">
         <v>406</v>
       </c>
-      <c r="V3" s="69">
+      <c r="V3" s="68">
         <v>275.42200000000003</v>
+      </c>
+      <c r="W3" s="7">
+        <v>340.584</v>
+      </c>
+      <c r="X3" s="7">
+        <v>416.67200000000003</v>
+      </c>
+      <c r="Y3" s="7">
+        <f>U3*1.02</f>
+        <v>414.12</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -4661,8 +4710,18 @@
       <c r="U4" s="7">
         <v>62</v>
       </c>
-      <c r="V4" s="69">
+      <c r="V4" s="68">
         <v>47.966999999999999</v>
+      </c>
+      <c r="W4" s="7">
+        <v>46.808999999999997</v>
+      </c>
+      <c r="X4" s="7">
+        <v>49.067</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>U4*0.95</f>
+        <v>58.9</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -4683,7 +4742,7 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
       <c r="R5" s="29"/>
-      <c r="V5" s="69"/>
+      <c r="V5" s="68"/>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
@@ -4749,8 +4808,18 @@
       <c r="U6" s="7">
         <v>222</v>
       </c>
-      <c r="V6" s="69">
+      <c r="V6" s="68">
         <v>241</v>
+      </c>
+      <c r="W6" s="7">
+        <v>229</v>
+      </c>
+      <c r="X6" s="7">
+        <v>224</v>
+      </c>
+      <c r="Y6" s="7">
+        <f>U6*1.05</f>
+        <v>233.10000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.15">
@@ -4822,7 +4891,7 @@
         <v>2.4093749999999998</v>
       </c>
       <c r="R7" s="52">
-        <f t="shared" ref="R7:V7" si="1">SUM(R3:R4)/R6</f>
+        <f t="shared" ref="R7:Y7" si="1">SUM(R3:R4)/R6</f>
         <v>1.9663891625615764</v>
       </c>
       <c r="S7" s="53">
@@ -4841,26 +4910,37 @@
         <f t="shared" si="1"/>
         <v>1.3418630705394192</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" s="57"/>
-    </row>
-    <row r="9" spans="1:25" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67" t="s">
+      <c r="W7" s="53">
+        <f t="shared" si="1"/>
+        <v>1.6916724890829695</v>
+      </c>
+      <c r="X7" s="53">
+        <f t="shared" si="1"/>
+        <v>2.0791919642857146</v>
+      </c>
+      <c r="Y7" s="53">
+        <f>SUM(Y3:Y4)/Y6</f>
+        <v>2.0292578292578289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="71">
+        <v>427</v>
+      </c>
+      <c r="V8" s="72"/>
+    </row>
+    <row r="9" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="45">
@@ -4932,7 +5012,7 @@
         <v>399.17700000000002</v>
       </c>
       <c r="S9" s="45">
-        <f t="shared" ref="S9:V9" si="5">S6*S7</f>
+        <f t="shared" ref="S9:Y9" si="5">S6*S7</f>
         <v>431.99999999999994</v>
       </c>
       <c r="T9" s="45">
@@ -4947,6 +5027,18 @@
         <f t="shared" si="5"/>
         <v>323.38900000000001</v>
       </c>
+      <c r="W9" s="45">
+        <f>W6*W7</f>
+        <v>387.39300000000003</v>
+      </c>
+      <c r="X9" s="45">
+        <f t="shared" si="5"/>
+        <v>465.73900000000009</v>
+      </c>
+      <c r="Y9" s="45">
+        <f>Y6*Y7</f>
+        <v>473.02</v>
+      </c>
     </row>
     <row r="10" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -5012,8 +5104,18 @@
       <c r="U10" s="7">
         <v>91</v>
       </c>
-      <c r="V10" s="69">
+      <c r="V10" s="68">
         <v>74</v>
+      </c>
+      <c r="W10" s="7">
+        <v>63.584000000000003</v>
+      </c>
+      <c r="X10" s="7">
+        <v>77.197999999999993</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>Y9-Y11</f>
+        <v>78.404853276191147</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -5085,7 +5187,7 @@
         <v>398.93499999999995</v>
       </c>
       <c r="R11" s="49">
-        <f t="shared" ref="R11:V11" si="9">R9-R10</f>
+        <f t="shared" ref="R11:X11" si="9">R9-R10</f>
         <v>316.36</v>
       </c>
       <c r="S11" s="48">
@@ -5104,6 +5206,18 @@
         <f t="shared" si="9"/>
         <v>249.38900000000001</v>
       </c>
+      <c r="W11" s="48">
+        <f t="shared" si="9"/>
+        <v>323.80900000000003</v>
+      </c>
+      <c r="X11" s="48">
+        <f t="shared" si="9"/>
+        <v>388.54100000000011</v>
+      </c>
+      <c r="Y11" s="7">
+        <f>Y9*X30</f>
+        <v>394.61514672380883</v>
+      </c>
     </row>
     <row r="12" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
@@ -5169,8 +5283,18 @@
       <c r="U12" s="7">
         <v>75</v>
       </c>
-      <c r="V12" s="69">
+      <c r="V12" s="68">
         <v>74</v>
+      </c>
+      <c r="W12" s="7">
+        <v>76</v>
+      </c>
+      <c r="X12" s="7">
+        <v>84</v>
+      </c>
+      <c r="Y12" s="7">
+        <f>U12*1.2</f>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -5237,8 +5361,18 @@
       <c r="U13" s="7">
         <v>123</v>
       </c>
-      <c r="V13" s="69">
+      <c r="V13" s="68">
         <v>99</v>
+      </c>
+      <c r="W13" s="7">
+        <v>112</v>
+      </c>
+      <c r="X13" s="7">
+        <v>105</v>
+      </c>
+      <c r="Y13" s="7">
+        <f>U13*0.9</f>
+        <v>110.7</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -5306,8 +5440,18 @@
       <c r="U14" s="7">
         <v>28</v>
       </c>
-      <c r="V14" s="69">
+      <c r="V14" s="68">
         <v>18</v>
+      </c>
+      <c r="W14" s="7">
+        <v>30</v>
+      </c>
+      <c r="X14" s="7">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="7">
+        <f>U14*1.4</f>
+        <v>39.199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -5398,6 +5542,18 @@
         <f t="shared" ref="V15" si="15">SUM(V12:V14)</f>
         <v>191</v>
       </c>
+      <c r="W15" s="48">
+        <f t="shared" ref="W15:X15" si="16">SUM(W12:W14)</f>
+        <v>218</v>
+      </c>
+      <c r="X15" s="48">
+        <f t="shared" si="16"/>
+        <v>228</v>
+      </c>
+      <c r="Y15" s="48">
+        <f t="shared" ref="Y15" si="17">SUM(Y12:Y14)</f>
+        <v>239.89999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
@@ -5424,71 +5580,83 @@
         <v>7.1509999999999962</v>
       </c>
       <c r="G16" s="50">
-        <f t="shared" ref="G16" si="16">G11-G15</f>
+        <f t="shared" ref="G16" si="18">G11-G15</f>
         <v>27.251000000000005</v>
       </c>
       <c r="H16" s="50">
-        <f t="shared" ref="H16:M16" si="17">H11-H15</f>
+        <f t="shared" ref="H16:M16" si="19">H11-H15</f>
         <v>42.921000000000006</v>
       </c>
       <c r="I16" s="50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>63.656999999999982</v>
       </c>
       <c r="J16" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>55.850999999999971</v>
       </c>
       <c r="K16" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>87.969999999999985</v>
       </c>
       <c r="L16" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>118.45399999999995</v>
       </c>
       <c r="M16" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>145.27899999999997</v>
       </c>
       <c r="N16" s="49">
-        <f t="shared" ref="N16:O16" si="18">N11-N15</f>
+        <f t="shared" ref="N16:O16" si="20">N11-N15</f>
         <v>109.37900000000005</v>
       </c>
       <c r="O16" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>154.89600000000004</v>
       </c>
       <c r="P16" s="48">
-        <f t="shared" ref="P16:R16" si="19">P11-P15</f>
+        <f t="shared" ref="P16:R16" si="21">P11-P15</f>
         <v>161.95900000000003</v>
       </c>
       <c r="Q16" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>183.02999999999992</v>
       </c>
       <c r="R16" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>123.06900000000002</v>
       </c>
       <c r="S16" s="48">
-        <f t="shared" ref="S16:T16" si="20">S11-S15</f>
+        <f t="shared" ref="S16:T16" si="22">S11-S15</f>
         <v>151.99999999999994</v>
       </c>
       <c r="T16" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>173.00000000000006</v>
       </c>
       <c r="U16" s="48">
-        <f t="shared" ref="U16:V16" si="21">U11-U15</f>
+        <f t="shared" ref="U16:V16" si="23">U11-U15</f>
         <v>150.99999999999994</v>
       </c>
       <c r="V16" s="49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>58.38900000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W16" s="48">
+        <f t="shared" ref="W16:X16" si="24">W11-W15</f>
+        <v>105.80900000000003</v>
+      </c>
+      <c r="X16" s="48">
+        <f t="shared" si="24"/>
+        <v>160.54100000000011</v>
+      </c>
+      <c r="Y16" s="48">
+        <f t="shared" ref="Y16" si="25">Y11-Y15</f>
+        <v>154.71514672380886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -5567,12 +5735,22 @@
       <c r="U17" s="7">
         <v>-25</v>
       </c>
-      <c r="V17" s="69">
+      <c r="V17" s="68">
         <f>-3+13</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W17" s="7">
+        <v>132</v>
+      </c>
+      <c r="X17" s="7">
+        <v>-97</v>
+      </c>
+      <c r="Y17" s="7">
+        <f>AVERAGE(R17:U17)</f>
+        <v>1.1445000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -5597,27 +5775,27 @@
         <v>7.7029999999999959</v>
       </c>
       <c r="G18" s="50">
-        <f t="shared" ref="G18:I18" si="22">G16+G17</f>
+        <f t="shared" ref="G18:I18" si="26">G16+G17</f>
         <v>26.222000000000005</v>
       </c>
       <c r="H18" s="50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>33.745000000000005</v>
       </c>
       <c r="I18" s="50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>42.309999999999981</v>
       </c>
       <c r="J18" s="49">
-        <f t="shared" ref="J18:K18" si="23">J16+J17</f>
+        <f t="shared" ref="J18:K18" si="27">J16+J17</f>
         <v>57.950999999999972</v>
       </c>
       <c r="K18" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>89.489999999999981</v>
       </c>
       <c r="L18" s="48">
-        <f t="shared" ref="L18:N18" si="24">L16+L17</f>
+        <f t="shared" ref="L18:N18" si="28">L16+L17</f>
         <v>122.71099999999996</v>
       </c>
       <c r="M18" s="48">
@@ -5625,43 +5803,55 @@
         <v>146.95899999999997</v>
       </c>
       <c r="N18" s="49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>117.00800000000005</v>
       </c>
       <c r="O18" s="48">
-        <f t="shared" ref="O18:P18" si="25">O16+O17</f>
+        <f t="shared" ref="O18:P18" si="29">O16+O17</f>
         <v>165.84200000000004</v>
       </c>
       <c r="P18" s="48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>204.86</v>
       </c>
       <c r="Q18" s="48">
-        <f t="shared" ref="Q18:V18" si="26">Q16+Q17</f>
+        <f t="shared" ref="Q18:Y18" si="30">Q16+Q17</f>
         <v>181.13199999999992</v>
       </c>
       <c r="R18" s="49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>171.64700000000002</v>
       </c>
       <c r="S18" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>127.99999999999994</v>
       </c>
       <c r="T18" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>178.00000000000006</v>
       </c>
       <c r="U18" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>125.99999999999994</v>
       </c>
       <c r="V18" s="49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>68.38900000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W18" s="48">
+        <f t="shared" si="30"/>
+        <v>237.80900000000003</v>
+      </c>
+      <c r="X18" s="48">
+        <f t="shared" si="30"/>
+        <v>63.541000000000111</v>
+      </c>
+      <c r="Y18" s="48">
+        <f t="shared" si="30"/>
+        <v>155.85964672380885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
@@ -5725,24 +5915,34 @@
       <c r="U19" s="7">
         <v>31</v>
       </c>
-      <c r="V19" s="69">
+      <c r="V19" s="68">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
+      <c r="W19" s="7">
+        <v>41</v>
+      </c>
+      <c r="X19" s="7">
+        <v>30</v>
+      </c>
+      <c r="Y19" s="7">
+        <f>Y18*U32</f>
+        <v>38.346421019349812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="66" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="45">
-        <f t="shared" ref="B20:G20" si="27">B18-B19</f>
+        <f t="shared" ref="B20:G20" si="31">B18-B19</f>
         <v>-3.1150000000000149</v>
       </c>
       <c r="C20" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.1530000000000227</v>
       </c>
       <c r="D20" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>14.224000000000011</v>
       </c>
       <c r="E20" s="45">
@@ -5750,164 +5950,188 @@
         <v>18.871999999999996</v>
       </c>
       <c r="F20" s="46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7.1549999999999958</v>
       </c>
       <c r="G20" s="47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>24.426000000000005</v>
       </c>
       <c r="H20" s="47">
-        <f t="shared" ref="H20" si="28">H18-H19</f>
+        <f t="shared" ref="H20" si="32">H18-H19</f>
         <v>31.828000000000003</v>
       </c>
       <c r="I20" s="47">
-        <f t="shared" ref="I20:Q20" si="29">I18-I19</f>
+        <f t="shared" ref="I20:Q20" si="33">I18-I19</f>
         <v>42.254999999999981</v>
       </c>
       <c r="J20" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>46.63499999999997</v>
       </c>
       <c r="K20" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>73.126999999999981</v>
       </c>
       <c r="L20" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100.68899999999996</v>
       </c>
       <c r="M20" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>129.91399999999999</v>
       </c>
       <c r="N20" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>98.711000000000055</v>
       </c>
       <c r="O20" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>140.69400000000005</v>
       </c>
       <c r="P20" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>166.97800000000001</v>
       </c>
       <c r="Q20" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>166.23699999999991</v>
       </c>
       <c r="R20" s="46">
-        <f t="shared" ref="R20:S20" si="30">R18-R19</f>
+        <f t="shared" ref="R20:S20" si="34">R18-R19</f>
         <v>150.57400000000001</v>
       </c>
       <c r="S20" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>101.99999999999994</v>
       </c>
       <c r="T20" s="45">
-        <f t="shared" ref="T20:V20" si="31">T18-T19</f>
+        <f t="shared" ref="T20:V20" si="35">T18-T19</f>
         <v>147.00000000000006</v>
       </c>
       <c r="U20" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>94.999999999999943</v>
       </c>
       <c r="V20" s="46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>52.38900000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W20" s="45">
+        <f t="shared" ref="W20:X20" si="36">W18-W19</f>
+        <v>196.80900000000003</v>
+      </c>
+      <c r="X20" s="45">
+        <f t="shared" si="36"/>
+        <v>33.541000000000111</v>
+      </c>
+      <c r="Y20" s="45">
+        <f t="shared" ref="Y20" si="37">Y18-Y19</f>
+        <v>117.51322570445905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="53">
-        <f t="shared" ref="B21:H21" si="32">IFERROR(B20/B22,0)</f>
+        <f t="shared" ref="B21:H21" si="38">IFERROR(B20/B22,0)</f>
         <v>-1.5196233870771103E-2</v>
       </c>
       <c r="C21" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1.9039541547278042E-2</v>
       </c>
       <c r="D21" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>6.5343323487121102E-2</v>
       </c>
       <c r="E21" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>8.5991324317427897E-2</v>
       </c>
       <c r="F21" s="52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>3.2578110059828962E-2</v>
       </c>
       <c r="G21" s="51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.1102201605515972</v>
       </c>
       <c r="H21" s="51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.14217751193821168</v>
       </c>
       <c r="I21" s="51">
-        <f t="shared" ref="I21:L21" si="33">IFERROR(I20/I22,0)</f>
+        <f t="shared" ref="I21:L21" si="39">IFERROR(I20/I22,0)</f>
         <v>0.18833654990439422</v>
       </c>
       <c r="J21" s="52">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.20760621817016262</v>
       </c>
       <c r="K21" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.32465537525805227</v>
       </c>
       <c r="L21" s="53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.4461523464328282</v>
       </c>
       <c r="M21" s="53">
-        <f t="shared" ref="M21:N21" si="34">IFERROR(M20/M22,0)</f>
+        <f t="shared" ref="M21:N21" si="40">IFERROR(M20/M22,0)</f>
         <v>0.56370381619768717</v>
       </c>
       <c r="N21" s="52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.43683038974027666</v>
       </c>
       <c r="O21" s="53">
-        <f t="shared" ref="O21:P21" si="35">IFERROR(O20/O22,0)</f>
+        <f t="shared" ref="O21:P21" si="41">IFERROR(O20/O22,0)</f>
         <v>0.60443875446796835</v>
       </c>
       <c r="P21" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.71769105131952204</v>
       </c>
       <c r="Q21" s="53">
-        <f t="shared" ref="Q21:S21" si="36">IFERROR(Q20/Q22,0)</f>
+        <f t="shared" ref="Q21:S21" si="42">IFERROR(Q20/Q22,0)</f>
         <v>0.71481952889171696</v>
       </c>
       <c r="R21" s="52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.64653447491133309</v>
       </c>
       <c r="S21" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.45077493514586081</v>
       </c>
       <c r="T21" s="53">
-        <f t="shared" ref="T21:V21" si="37">IFERROR(T20/T22,0)</f>
+        <f t="shared" ref="T21:V21" si="43">IFERROR(T20/T22,0)</f>
         <v>0.63056029786467427</v>
       </c>
       <c r="U21" s="53">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.4187900054663114</v>
       </c>
       <c r="V21" s="52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.23075906602240248</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W21" s="53">
+        <f t="shared" ref="W21:X21" si="44">IFERROR(W20/W22,0)</f>
+        <v>0.84112520995115037</v>
+      </c>
+      <c r="X21" s="53">
+        <f t="shared" si="44"/>
+        <v>0.14724333056766498</v>
+      </c>
+      <c r="Y21" s="53">
+        <f t="shared" ref="Y21" si="45">IFERROR(Y20/Y22,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
@@ -5971,24 +6195,43 @@
       <c r="U22" s="7">
         <v>226.84399999999999</v>
       </c>
-      <c r="V22" s="69">
+      <c r="V22" s="68">
         <v>227.029</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="31"/>
-    </row>
-    <row r="24" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W22" s="7">
+        <v>233.983</v>
+      </c>
+      <c r="X22" s="7">
+        <v>227.79300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="57"/>
+      <c r="V23" s="76"/>
+      <c r="X23" s="77">
+        <v>-0.05</v>
+      </c>
+      <c r="Y23" s="77">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -6005,7 +6248,7 @@
         <v>0.36203890877394684</v>
       </c>
       <c r="H24" s="35">
-        <f t="shared" ref="H24" si="38">IFERROR((H9/D9)-1,0)</f>
+        <f t="shared" ref="H24" si="46">IFERROR((H9/D9)-1,0)</f>
         <v>0.41803357544855446</v>
       </c>
       <c r="I24" s="35">
@@ -6017,31 +6260,31 @@
         <v>0.66988850699974867</v>
       </c>
       <c r="K24" s="35">
-        <f t="shared" ref="K24" si="39">IFERROR((K9/G9)-1,0)</f>
+        <f t="shared" ref="K24" si="47">IFERROR((K9/G9)-1,0)</f>
         <v>0.72497532082922023</v>
       </c>
       <c r="L24" s="35">
-        <f t="shared" ref="L24:Q24" si="40">IFERROR((L9/H9)-1,0)</f>
+        <f t="shared" ref="L24:Q24" si="48">IFERROR((L9/H9)-1,0)</f>
         <v>0.80936469976311187</v>
       </c>
       <c r="M24" s="35">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.77414123752044683</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.75643194562276328</v>
       </c>
       <c r="O24" s="35">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.68364032473862668</v>
       </c>
       <c r="P24" s="35">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.43787710719140116</v>
       </c>
       <c r="Q24" s="35">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0.27667607201049149</v>
       </c>
       <c r="R24" s="36">
@@ -6064,8 +6307,20 @@
         <f>IFERROR((V9/R9)-1,0)</f>
         <v>-0.18986063826322663</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W24" s="35">
+        <f>IFERROR((W9/S9)-1,0)</f>
+        <v>-0.10325694444444422</v>
+      </c>
+      <c r="X24" s="35">
+        <f>IFERROR((X9/T9)-1,0)</f>
+        <v>-2.7002141327622242E-3</v>
+      </c>
+      <c r="Y24" s="35">
+        <f>IFERROR((Y9/U9)-1,0)</f>
+        <v>1.0726495726495866E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -6078,11 +6333,11 @@
         <v>7.591470519692356E-2</v>
       </c>
       <c r="G25" s="37">
-        <f t="shared" ref="G25:H25" si="41">IFERROR((G12/C12)-1,0)</f>
+        <f t="shared" ref="G25:H25" si="49">IFERROR((G12/C12)-1,0)</f>
         <v>7.4323745322631307E-2</v>
       </c>
       <c r="H25" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>5.8170858560264493E-2</v>
       </c>
       <c r="I25" s="37">
@@ -6094,55 +6349,67 @@
         <v>6.1109005252612869E-2</v>
       </c>
       <c r="K25" s="37">
-        <f t="shared" ref="K25:R25" si="42">IFERROR((K12/G12)-1,0)</f>
+        <f t="shared" ref="K25:R25" si="50">IFERROR((K12/G12)-1,0)</f>
         <v>0.21049692908989392</v>
       </c>
       <c r="L25" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.27967938700408346</v>
       </c>
       <c r="M25" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.45235646743083602</v>
       </c>
       <c r="N25" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.54430864229032183</v>
       </c>
       <c r="O25" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.33133456334563349</v>
       </c>
       <c r="P25" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.30435296434902481</v>
       </c>
       <c r="Q25" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>7.9631804365846826E-2</v>
       </c>
       <c r="R25" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.15415627116963782</v>
       </c>
       <c r="S25" s="37">
-        <f t="shared" ref="S25:V26" si="43">IFERROR((S12/O12)-1,0)</f>
+        <f t="shared" ref="S25:Y26" si="51">IFERROR((S12/O12)-1,0)</f>
         <v>0.15486776764060517</v>
       </c>
       <c r="T25" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>4.1949805200688584E-2</v>
       </c>
       <c r="U25" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0.1997120691034151</v>
       </c>
       <c r="V25" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>5.9367528953659932E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W25" s="37">
+        <f t="shared" si="51"/>
+        <v>8.5714285714285632E-2</v>
+      </c>
+      <c r="X25" s="37">
+        <f t="shared" si="51"/>
+        <v>0.21739130434782616</v>
+      </c>
+      <c r="Y25" s="37">
+        <f t="shared" si="51"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -6155,71 +6422,83 @@
         <v>-3.6715192714679601E-2</v>
       </c>
       <c r="G26" s="37">
-        <f t="shared" ref="G26:R26" si="44">IFERROR((G13/C13)-1,0)</f>
+        <f t="shared" ref="G26:R26" si="52">IFERROR((G13/C13)-1,0)</f>
         <v>0.12807743564564777</v>
       </c>
       <c r="H26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.26453198697933966</v>
       </c>
       <c r="I26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.32419385981849769</v>
       </c>
       <c r="J26" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.56995439565926564</v>
       </c>
       <c r="K26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.84552011440651631</v>
       </c>
       <c r="L26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1.005411084843709</v>
       </c>
       <c r="M26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.93027954838978477</v>
       </c>
       <c r="N26" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1.2446197230880141</v>
       </c>
       <c r="O26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>1.3579839293836229</v>
       </c>
       <c r="P26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.84762790453985781</v>
       </c>
       <c r="Q26" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.51648410942642853</v>
       </c>
       <c r="R26" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>2.7204972464411892E-3</v>
       </c>
       <c r="S26" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>-0.24273273466355194</v>
       </c>
       <c r="T26" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>-8.548905068092072E-2</v>
       </c>
       <c r="U26" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>-0.12471090553282338</v>
       </c>
       <c r="V26" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>-6.7366298951493597E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="37">
+        <f t="shared" si="51"/>
+        <v>5.6603773584905648E-2</v>
+      </c>
+      <c r="X26" s="37">
+        <f t="shared" si="51"/>
+        <v>-0.18604651162790697</v>
+      </c>
+      <c r="Y26" s="37">
+        <f t="shared" si="51"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -6232,15 +6511,15 @@
         <v>0.33992467043314512</v>
       </c>
       <c r="G27" s="37">
-        <f t="shared" ref="G27:V27" si="45">IFERROR((G14/C14)-1,0)</f>
+        <f t="shared" ref="G27:Y27" si="53">IFERROR((G14/C14)-1,0)</f>
         <v>0.10950313555233948</v>
       </c>
       <c r="H27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.95430286857905244</v>
       </c>
       <c r="I27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.42310949788263752</v>
       </c>
       <c r="J27" s="38">
@@ -6248,132 +6527,156 @@
         <v>0.23518388381353938</v>
       </c>
       <c r="K27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.10217391304347845</v>
       </c>
       <c r="L27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>2.7223075610172565E-2</v>
       </c>
       <c r="M27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>-0.1844924332596497</v>
       </c>
       <c r="N27" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>6.3531196662241607E-2</v>
       </c>
       <c r="O27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>-8.1558185404339234E-2</v>
       </c>
       <c r="P27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.73755919248982282</v>
       </c>
       <c r="Q27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.34122185154295237</v>
       </c>
       <c r="R27" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0.54128031383737518</v>
       </c>
       <c r="S27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>1.3622892730591643</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>9.9689218264403578E-2</v>
       </c>
       <c r="U27" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>1.1764477263894286</v>
       </c>
       <c r="V27" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>4.124486608434097E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W27" s="37">
+        <f t="shared" si="53"/>
+        <v>0.36363636363636354</v>
+      </c>
+      <c r="X27" s="37">
+        <f t="shared" si="53"/>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="Y27" s="37">
+        <f t="shared" si="53"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61">
+        <v>101</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60">
         <f>F15/B15-1</f>
         <v>5.0454886904264917E-2</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="59">
         <f>G15/C15-1</f>
         <v>9.9728468982802854E-2</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <f>H15/D15-1</f>
         <v>0.21559888579387199</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="59">
         <f>I15/E15-1</f>
         <v>0.22808509589311265</v>
       </c>
-      <c r="J28" s="61">
+      <c r="J28" s="60">
         <f>J15/F15-1</f>
         <v>0.28322275634658967</v>
       </c>
-      <c r="K28" s="60">
-        <f t="shared" ref="K28:V28" si="46">K15/G15-1</f>
+      <c r="K28" s="59">
+        <f t="shared" ref="K28:Y28" si="54">K15/G15-1</f>
         <v>0.45651265558327125</v>
       </c>
-      <c r="L28" s="60">
-        <f t="shared" si="46"/>
+      <c r="L28" s="59">
+        <f t="shared" si="54"/>
         <v>0.55544253426035661</v>
       </c>
-      <c r="M28" s="60">
-        <f t="shared" si="46"/>
+      <c r="M28" s="59">
+        <f t="shared" si="54"/>
         <v>0.60744502544235601</v>
       </c>
-      <c r="N28" s="61">
-        <f t="shared" si="46"/>
+      <c r="N28" s="60">
+        <f t="shared" si="54"/>
         <v>0.83283797729618159</v>
       </c>
-      <c r="O28" s="60">
-        <f t="shared" si="46"/>
+      <c r="O28" s="59">
+        <f t="shared" si="54"/>
         <v>0.82475158870217591</v>
       </c>
-      <c r="P28" s="60">
-        <f t="shared" si="46"/>
+      <c r="P28" s="59">
+        <f t="shared" si="54"/>
         <v>0.63989277988976134</v>
       </c>
-      <c r="Q28" s="60">
-        <f t="shared" si="46"/>
+      <c r="Q28" s="59">
+        <f t="shared" si="54"/>
         <v>0.3480497749139928</v>
       </c>
-      <c r="R28" s="61">
-        <f t="shared" si="46"/>
+      <c r="R28" s="60">
+        <f t="shared" si="54"/>
         <v>8.8337969167013863E-2</v>
       </c>
-      <c r="S28" s="60">
-        <f t="shared" si="46"/>
+      <c r="S28" s="59">
+        <f t="shared" si="54"/>
         <v>-5.6707145681576643E-2</v>
       </c>
-      <c r="T28" s="60">
-        <f t="shared" si="46"/>
+      <c r="T28" s="59">
+        <f t="shared" si="54"/>
         <v>-3.1534295079668317E-2</v>
       </c>
-      <c r="U28" s="60">
-        <f t="shared" si="46"/>
+      <c r="U28" s="59">
+        <f t="shared" si="54"/>
         <v>4.6756675389638902E-2</v>
       </c>
-      <c r="V28" s="61">
-        <f t="shared" si="46"/>
+      <c r="V28" s="60">
+        <f t="shared" si="54"/>
         <v>-1.185259530966265E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W28" s="59">
+        <f t="shared" si="54"/>
+        <v>0.10101010101010099</v>
+      </c>
+      <c r="X28" s="59">
+        <f t="shared" si="54"/>
+        <v>3.167420814479649E-2</v>
+      </c>
+      <c r="Y28" s="59">
+        <f t="shared" si="54"/>
+        <v>6.1504424778761058E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -6386,7 +6689,7 @@
       <c r="Q29" s="32"/>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -6411,71 +6714,83 @@
         <v>0.69296671975857149</v>
       </c>
       <c r="G30" s="41">
-        <f t="shared" ref="G30:L30" si="47">IFERROR(G11/G9,0)</f>
+        <f t="shared" ref="G30:L30" si="55">IFERROR(G11/G9,0)</f>
         <v>0.72320522858018177</v>
       </c>
       <c r="H30" s="41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.74844666067380161</v>
       </c>
       <c r="I30" s="41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.76754658093143058</v>
       </c>
       <c r="J30" s="40">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.76681843966646746</v>
       </c>
       <c r="K30" s="39">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.80119428668405857</v>
       </c>
       <c r="L30" s="39">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0.80493383536175733</v>
       </c>
       <c r="M30" s="39">
-        <f t="shared" ref="M30:N30" si="48">IFERROR(M11/M9,0)</f>
+        <f t="shared" ref="M30:N30" si="56">IFERROR(M11/M9,0)</f>
         <v>0.80923048391156327</v>
       </c>
       <c r="N30" s="40">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.82021990208155304</v>
       </c>
       <c r="O30" s="39">
-        <f t="shared" ref="O30:P30" si="49">IFERROR(O11/O9,0)</f>
+        <f t="shared" ref="O30:P30" si="57">IFERROR(O11/O9,0)</f>
         <v>0.85515332087794105</v>
       </c>
       <c r="P30" s="39">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0.84784786525009181</v>
       </c>
       <c r="Q30" s="39">
-        <f>IFERROR(Q11/Q9,0)</f>
+        <f t="shared" ref="Q30:V30" si="58">IFERROR(Q11/Q9,0)</f>
         <v>0.82788067444876778</v>
       </c>
       <c r="R30" s="40">
-        <f>IFERROR(R11/R9,0)</f>
+        <f t="shared" si="58"/>
         <v>0.79253063177487681</v>
       </c>
       <c r="S30" s="39">
-        <f>IFERROR(S11/S9,0)</f>
+        <f t="shared" si="58"/>
         <v>0.81018518518518512</v>
       </c>
       <c r="T30" s="39">
-        <f>IFERROR(T11/T9,0)</f>
+        <f t="shared" si="58"/>
         <v>0.84368308351177734</v>
       </c>
       <c r="U30" s="39">
-        <f>IFERROR(U11/U9,0)</f>
+        <f t="shared" si="58"/>
         <v>0.80555555555555558</v>
       </c>
       <c r="V30" s="40">
-        <f>IFERROR(V11/V9,0)</f>
+        <f t="shared" si="58"/>
         <v>0.77117341653550364</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W30" s="39">
+        <f t="shared" ref="W30:X30" si="59">IFERROR(W11/W9,0)</f>
+        <v>0.83586693616043661</v>
+      </c>
+      <c r="X30" s="39">
+        <f t="shared" si="59"/>
+        <v>0.83424621944909061</v>
+      </c>
+      <c r="Y30" s="39">
+        <f t="shared" ref="Y30" si="60">IFERROR(Y11/Y9,0)</f>
+        <v>0.83424621944909061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -6500,43 +6815,43 @@
         <v>5.994634923296166E-2</v>
       </c>
       <c r="G31" s="44">
-        <f t="shared" ref="G31:L31" si="50">IFERROR(G16/G9,0)</f>
+        <f t="shared" ref="G31:L31" si="61">IFERROR(G16/G9,0)</f>
         <v>0.18552609184055557</v>
       </c>
       <c r="H31" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.24266015366610699</v>
       </c>
       <c r="I31" s="44">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.29921315359016293</v>
       </c>
       <c r="J31" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.28037509851858161</v>
       </c>
       <c r="K31" s="42">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.34719563647271012</v>
       </c>
       <c r="L31" s="42">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.37012826722077263</v>
       </c>
       <c r="M31" s="42">
-        <f t="shared" ref="M31:N31" si="51">IFERROR(M16/M9,0)</f>
+        <f t="shared" ref="M31:N31" si="62">IFERROR(M16/M9,0)</f>
         <v>0.38490111142020683</v>
       </c>
       <c r="N31" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>0.31261593161142448</v>
       </c>
       <c r="O31" s="42">
-        <f t="shared" ref="O31:P31" si="52">IFERROR(O16/O9,0)</f>
+        <f t="shared" ref="O31:P31" si="63">IFERROR(O16/O9,0)</f>
         <v>0.36310359620149613</v>
       </c>
       <c r="P31" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.35195394755427878</v>
       </c>
       <c r="Q31" s="42">
@@ -6544,27 +6859,39 @@
         <v>0.37982879377431894</v>
       </c>
       <c r="R31" s="43">
-        <f t="shared" ref="R31:S31" si="53">IFERROR(R16/R9,0)</f>
+        <f t="shared" ref="R31:S31" si="64">IFERROR(R16/R9,0)</f>
         <v>0.30830684132602831</v>
       </c>
       <c r="S31" s="42">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.35185185185185175</v>
       </c>
       <c r="T31" s="42">
-        <f t="shared" ref="T31:U31" si="54">IFERROR(T16/T9,0)</f>
+        <f t="shared" ref="T31:U31" si="65">IFERROR(T16/T9,0)</f>
         <v>0.37044967880085661</v>
       </c>
       <c r="U31" s="42">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>0.32264957264957256</v>
       </c>
       <c r="V31" s="43">
-        <f t="shared" ref="V31" si="55">IFERROR(V16/V9,0)</f>
+        <f t="shared" ref="V31" si="66">IFERROR(V16/V9,0)</f>
         <v>0.18055345110687132</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W31" s="42">
+        <f t="shared" ref="W31:X31" si="67">IFERROR(W16/W9,0)</f>
+        <v>0.27313090324296002</v>
+      </c>
+      <c r="X31" s="42">
+        <f t="shared" si="67"/>
+        <v>0.34470164620098398</v>
+      </c>
+      <c r="Y31" s="42">
+        <f t="shared" ref="Y31" si="68">IFERROR(Y16/Y9,0)</f>
+        <v>0.32707950345399533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -6573,15 +6900,15 @@
         <v>-1.6313213703099433E-2</v>
       </c>
       <c r="C32" s="42">
-        <f t="shared" ref="C32" si="56">IFERROR(C19/C18,0)</f>
+        <f t="shared" ref="C32" si="69">IFERROR(C19/C18,0)</f>
         <v>9.0650317495072907E-2</v>
       </c>
       <c r="D32" s="42">
-        <f t="shared" ref="D32:E32" si="57">IFERROR(D19/D18,0)</f>
+        <f t="shared" ref="D32:E32" si="70">IFERROR(D19/D18,0)</f>
         <v>6.7523272584240152E-2</v>
       </c>
       <c r="E32" s="42">
-        <f t="shared" si="57"/>
+        <f t="shared" si="70"/>
         <v>5.7530962844586503E-2</v>
       </c>
       <c r="F32" s="43">
@@ -6597,19 +6924,19 @@
         <v>5.6808416061638757E-2</v>
       </c>
       <c r="I32" s="44">
-        <f t="shared" ref="I32:L32" si="58">IFERROR(I19/I18,0)</f>
+        <f t="shared" ref="I32:L32" si="71">IFERROR(I19/I18,0)</f>
         <v>1.2999290947766492E-3</v>
       </c>
       <c r="J32" s="43">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>0.19526841642076936</v>
       </c>
       <c r="K32" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>0.18284724550229078</v>
       </c>
       <c r="L32" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="71"/>
         <v>0.17946231389199019</v>
       </c>
       <c r="M32" s="42">
@@ -6617,23 +6944,23 @@
         <v>0.11598473043501932</v>
       </c>
       <c r="N32" s="43">
-        <f t="shared" ref="N32:O32" si="59">IFERROR(N19/N18,0)</f>
+        <f t="shared" ref="N32:O32" si="72">IFERROR(N19/N18,0)</f>
         <v>0.15637392315055373</v>
       </c>
       <c r="O32" s="42">
-        <f t="shared" si="59"/>
+        <f t="shared" si="72"/>
         <v>0.15163830633976913</v>
       </c>
       <c r="P32" s="42">
-        <f t="shared" ref="P32:R32" si="60">IFERROR(P19/P18,0)</f>
+        <f t="shared" ref="P32:R32" si="73">IFERROR(P19/P18,0)</f>
         <v>0.18491652836083178</v>
       </c>
       <c r="Q32" s="42">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>8.2232846763686182E-2</v>
       </c>
       <c r="R32" s="43">
-        <f t="shared" si="60"/>
+        <f t="shared" si="73"/>
         <v>0.12276940465024147</v>
       </c>
       <c r="S32" s="42">
@@ -6652,8 +6979,20 @@
         <f>IFERROR(V19/V18,0)</f>
         <v>0.2339557531181915</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W32" s="42">
+        <f>IFERROR(W19/W18,0)</f>
+        <v>0.17240726801761075</v>
+      </c>
+      <c r="X32" s="42">
+        <f>IFERROR(X19/X18,0)</f>
+        <v>0.47213610110007631</v>
+      </c>
+      <c r="Y32" s="42">
+        <f>IFERROR(Y19/Y18,0)</f>
+        <v>0.24603174603174613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -6666,8 +7005,8 @@
       <c r="Q33" s="32"/>
       <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:22" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:24" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="33"/>
@@ -6682,23 +7021,23 @@
         <v>673.226</v>
       </c>
       <c r="G34" s="47">
-        <f t="shared" ref="G34:K34" si="61">G35-G36</f>
+        <f t="shared" ref="G34:K34" si="74">G35-G36</f>
         <v>690.23</v>
       </c>
       <c r="H34" s="47">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>763.91000000000008</v>
       </c>
       <c r="I34" s="47">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>795.88699999999994</v>
       </c>
       <c r="J34" s="46">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>864.87699999999995</v>
       </c>
       <c r="K34" s="45">
-        <f t="shared" si="61"/>
+        <f t="shared" si="74"/>
         <v>1028.8960000000002</v>
       </c>
       <c r="L34" s="45">
@@ -6710,43 +7049,51 @@
         <v>1296.0739999999998</v>
       </c>
       <c r="N34" s="46">
-        <f t="shared" ref="N34:U34" si="62">N35-N36</f>
+        <f t="shared" ref="N34:U34" si="75">N35-N36</f>
         <v>1488.3729999999996</v>
       </c>
       <c r="O34" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>1256.0339999999997</v>
       </c>
       <c r="P34" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>1416.817</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>1636.328</v>
       </c>
       <c r="R34" s="46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>1480.19</v>
       </c>
       <c r="S34" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>1580</v>
       </c>
       <c r="T34" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>1634</v>
       </c>
       <c r="U34" s="45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>1749</v>
       </c>
       <c r="V34" s="46">
-        <f t="shared" ref="V34" si="63">V35-V36</f>
+        <f t="shared" ref="V34" si="76">V35-V36</f>
         <v>1733</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W34" s="45">
+        <f t="shared" ref="W34:X34" si="77">W35-W36</f>
+        <v>1880</v>
+      </c>
+      <c r="X34" s="45">
+        <f t="shared" si="77"/>
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>27</v>
       </c>
@@ -6825,8 +7172,16 @@
         <f>1131+1215+1070</f>
         <v>3416</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W35" s="7">
+        <f>1472+858+1235</f>
+        <v>3565</v>
+      </c>
+      <c r="X35" s="7">
+        <f>1412+1765+1202</f>
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>28</v>
       </c>
@@ -6890,8 +7245,16 @@
         <f>889+794</f>
         <v>1683</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W36" s="7">
+        <f>890+795</f>
+        <v>1685</v>
+      </c>
+      <c r="X36" s="7">
+        <f>891+1536</f>
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -6909,9 +7272,9 @@
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="29"/>
-      <c r="V37" s="69"/>
-    </row>
-    <row r="38" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="V37" s="68"/>
+    </row>
+    <row r="38" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>79</v>
       </c>
@@ -6956,8 +7319,14 @@
       <c r="V38" s="29">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W38" s="7">
+        <v>44</v>
+      </c>
+      <c r="X38" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>80</v>
       </c>
@@ -7002,8 +7371,14 @@
       <c r="V39" s="29">
         <v>4795</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W39" s="7">
+        <v>5017</v>
+      </c>
+      <c r="X39" s="7">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>81</v>
       </c>
@@ -7048,8 +7423,14 @@
       <c r="V40" s="29">
         <v>2484</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W40" s="7">
+        <v>2484</v>
+      </c>
+      <c r="X40" s="7">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -7067,9 +7448,9 @@
       <c r="P41" s="30"/>
       <c r="Q41" s="30"/>
       <c r="R41" s="29"/>
-      <c r="V41" s="69"/>
-    </row>
-    <row r="42" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="V41" s="68"/>
+    </row>
+    <row r="42" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>82</v>
       </c>
@@ -7085,47 +7466,55 @@
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
       <c r="M42" s="48">
-        <f t="shared" ref="M42:R42" si="64">M39-M38-M35</f>
+        <f t="shared" ref="M42:R42" si="78">M39-M38-M35</f>
         <v>302.86200000000008</v>
       </c>
       <c r="N42" s="49">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>399.19600000000037</v>
       </c>
       <c r="O42" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>724.94500000000016</v>
       </c>
       <c r="P42" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>744.83300000000008</v>
       </c>
       <c r="Q42" s="48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>703.7819999999997</v>
       </c>
       <c r="R42" s="49">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>1172.2379999999998</v>
       </c>
       <c r="S42" s="48">
-        <f t="shared" ref="S42:T42" si="65">S39-S38-S35</f>
+        <f t="shared" ref="S42:T42" si="79">S39-S38-S35</f>
         <v>1153</v>
       </c>
       <c r="T42" s="48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>1241</v>
       </c>
       <c r="U42" s="48">
-        <f t="shared" ref="U42:V42" si="66">U39-U38-U35</f>
+        <f t="shared" ref="U42:V42" si="80">U39-U38-U35</f>
         <v>1326</v>
       </c>
       <c r="V42" s="49">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>1334</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W42" s="48">
+        <f t="shared" ref="W42:X42" si="81">W39-W38-W35</f>
+        <v>1408</v>
+      </c>
+      <c r="X42" s="48">
+        <f t="shared" si="81"/>
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>83</v>
       </c>
@@ -7141,47 +7530,55 @@
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
       <c r="M43" s="48">
-        <f t="shared" ref="M43:R43" si="67">M39-M40</f>
+        <f t="shared" ref="M43:R43" si="82">M39-M40</f>
         <v>1194.7939999999999</v>
       </c>
       <c r="N43" s="49">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>1332.7259999999999</v>
       </c>
       <c r="O43" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>1435.2719999999999</v>
       </c>
       <c r="P43" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>1578.8430000000001</v>
       </c>
       <c r="Q43" s="48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>1748.1379999999997</v>
       </c>
       <c r="R43" s="49">
-        <f t="shared" si="67"/>
+        <f t="shared" si="82"/>
         <v>1945.6079999999999</v>
       </c>
       <c r="S43" s="48">
-        <f t="shared" ref="S43:T43" si="68">S39-S40</f>
+        <f t="shared" ref="S43:T43" si="83">S39-S40</f>
         <v>2024</v>
       </c>
       <c r="T43" s="48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="83"/>
         <v>2124</v>
       </c>
       <c r="U43" s="48">
-        <f t="shared" ref="U43:V43" si="69">U39-U40</f>
+        <f t="shared" ref="U43:V43" si="84">U39-U40</f>
         <v>2282</v>
       </c>
       <c r="V43" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="84"/>
         <v>2311</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W43" s="48">
+        <f t="shared" ref="W43:X43" si="85">W39-W40</f>
+        <v>2533</v>
+      </c>
+      <c r="X43" s="48">
+        <f t="shared" si="85"/>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
@@ -7199,10 +7596,10 @@
       <c r="P44" s="30"/>
       <c r="Q44" s="30"/>
       <c r="R44" s="29"/>
-      <c r="V44" s="69"/>
-    </row>
-    <row r="45" spans="1:22" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67" t="s">
+      <c r="V44" s="68"/>
+    </row>
+    <row r="45" spans="1:24" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="66" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="33"/>
@@ -7217,47 +7614,55 @@
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="45">
-        <f t="shared" ref="M45:V45" si="70">SUM(J20:M20)</f>
+        <f t="shared" ref="M45:X45" si="86">SUM(J20:M20)</f>
         <v>350.3649999999999</v>
       </c>
       <c r="N45" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>402.44099999999997</v>
       </c>
       <c r="O45" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>470.00800000000004</v>
       </c>
       <c r="P45" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>536.29700000000003</v>
       </c>
       <c r="Q45" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>572.62</v>
       </c>
       <c r="R45" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>624.48299999999995</v>
       </c>
       <c r="S45" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>585.78899999999987</v>
       </c>
       <c r="T45" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>565.81099999999992</v>
       </c>
       <c r="U45" s="45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>494.57399999999996</v>
       </c>
       <c r="V45" s="46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="86"/>
         <v>396.38899999999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W45" s="45">
+        <f t="shared" si="86"/>
+        <v>491.19800000000004</v>
+      </c>
+      <c r="X45" s="45">
+        <f t="shared" si="86"/>
+        <v>377.73900000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="25" t="s">
         <v>84</v>
       </c>
@@ -7273,47 +7678,55 @@
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
       <c r="M46" s="39">
-        <f t="shared" ref="M46:R46" si="71">M45/M43</f>
+        <f t="shared" ref="M46:R46" si="87">M45/M43</f>
         <v>0.29324301929872426</v>
       </c>
       <c r="N46" s="40">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>0.30196829655908269</v>
       </c>
       <c r="O46" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>0.32746963641734811</v>
       </c>
       <c r="P46" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>0.33967721933086442</v>
       </c>
       <c r="Q46" s="39">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>0.32755995236074048</v>
       </c>
       <c r="R46" s="40">
-        <f t="shared" si="71"/>
+        <f t="shared" si="87"/>
         <v>0.32097061689713446</v>
       </c>
       <c r="S46" s="39">
-        <f t="shared" ref="S46:T46" si="72">S45/S43</f>
+        <f t="shared" ref="S46:T46" si="88">S45/S43</f>
         <v>0.289421442687747</v>
       </c>
       <c r="T46" s="39">
-        <f t="shared" si="72"/>
+        <f t="shared" si="88"/>
         <v>0.26638935969868172</v>
       </c>
       <c r="U46" s="39">
-        <f t="shared" ref="U46:V46" si="73">U45/U43</f>
+        <f t="shared" ref="U46:V46" si="89">U45/U43</f>
         <v>0.21672830850131461</v>
       </c>
       <c r="V46" s="40">
-        <f t="shared" si="73"/>
+        <f t="shared" si="89"/>
         <v>0.17152271743833836</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W46" s="39">
+        <f t="shared" ref="W46:X46" si="90">W45/W43</f>
+        <v>0.19391946308724833</v>
+      </c>
+      <c r="X46" s="39">
+        <f t="shared" si="90"/>
+        <v>0.14131649831649834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" s="25" t="s">
         <v>85</v>
       </c>
@@ -7329,47 +7742,55 @@
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
       <c r="M47" s="39">
-        <f t="shared" ref="M47:R47" si="74">M45/M39</f>
+        <f t="shared" ref="M47:R47" si="91">M45/M39</f>
         <v>0.13676415078504761</v>
       </c>
       <c r="N47" s="40">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>0.14461656438410903</v>
       </c>
       <c r="O47" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>0.16340136044961728</v>
       </c>
       <c r="P47" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>0.17600687621983818</v>
       </c>
       <c r="Q47" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>0.1748627805692278</v>
       </c>
       <c r="R47" s="40">
-        <f t="shared" si="74"/>
+        <f t="shared" si="91"/>
         <v>0.17402709378824799</v>
       </c>
       <c r="S47" s="39">
-        <f t="shared" ref="S47:T47" si="75">S45/S39</f>
+        <f t="shared" ref="S47:T47" si="92">S45/S39</f>
         <v>0.15970256270447106</v>
       </c>
       <c r="T47" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="92"/>
         <v>0.1229489352455454</v>
       </c>
       <c r="U47" s="39">
-        <f t="shared" ref="U47:V47" si="76">U45/U39</f>
+        <f t="shared" ref="U47:V47" si="93">U45/U39</f>
         <v>0.1029504579517069</v>
       </c>
       <c r="V47" s="40">
-        <f t="shared" si="76"/>
+        <f t="shared" si="93"/>
         <v>8.266715328467153E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W47" s="39">
+        <f t="shared" ref="W47:X47" si="94">W45/W39</f>
+        <v>9.7906717161650392E-2</v>
+      </c>
+      <c r="X47" s="39">
+        <f t="shared" si="94"/>
+        <v>6.3177621675865547E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>86</v>
       </c>
@@ -7385,47 +7806,55 @@
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
       <c r="M48" s="39">
-        <f t="shared" ref="M48:R48" si="77">M45/(M43-M38)</f>
+        <f t="shared" ref="M48:R48" si="95">M45/(M43-M38)</f>
         <v>0.29670400395644853</v>
       </c>
       <c r="N48" s="40">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>0.30522662512447868</v>
       </c>
       <c r="O48" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>0.33054856765897533</v>
       </c>
       <c r="P48" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>0.34016931811622658</v>
       </c>
       <c r="Q48" s="39">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>0.33729381529832619</v>
       </c>
       <c r="R48" s="40">
-        <f t="shared" si="77"/>
+        <f t="shared" si="95"/>
         <v>0.32958248230655962</v>
       </c>
       <c r="S48" s="39">
-        <f t="shared" ref="S48:T48" si="78">S45/(S43-S38)</f>
+        <f t="shared" ref="S48:T48" si="96">S45/(S43-S38)</f>
         <v>0.29660202531645563</v>
       </c>
       <c r="T48" s="39">
-        <f t="shared" si="78"/>
+        <f t="shared" si="96"/>
         <v>0.27228633301251198</v>
       </c>
       <c r="U48" s="39">
-        <f t="shared" ref="U48:V48" si="79">U45/(U43-U38)</f>
+        <f t="shared" ref="U48:V48" si="97">U45/(U43-U38)</f>
         <v>0.22128590604026843</v>
       </c>
       <c r="V48" s="40">
-        <f t="shared" si="79"/>
+        <f t="shared" si="97"/>
         <v>0.17492894969108561</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W48" s="39">
+        <f t="shared" ref="W48:X48" si="98">W45/(W43-W38)</f>
+        <v>0.19734752912816395</v>
+      </c>
+      <c r="X48" s="39">
+        <f t="shared" si="98"/>
+        <v>0.14373630136986304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" s="25" t="s">
         <v>87</v>
       </c>
@@ -7433,47 +7862,55 @@
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
       <c r="M49" s="39">
-        <f t="shared" ref="M49:R49" si="80">M45/M42</f>
+        <f t="shared" ref="M49:R49" si="99">M45/M42</f>
         <v>1.1568470128309256</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="99"/>
         <v>1.0081288389663212</v>
       </c>
       <c r="O49" s="39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="99"/>
         <v>0.64833608066818849</v>
       </c>
       <c r="P49" s="39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="99"/>
         <v>0.72002314612805818</v>
       </c>
       <c r="Q49" s="39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="99"/>
         <v>0.81363263055889501</v>
       </c>
       <c r="R49" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="99"/>
         <v>0.53272714244035768</v>
       </c>
       <c r="S49" s="39">
-        <f t="shared" ref="S49:T49" si="81">S45/S42</f>
+        <f t="shared" ref="S49:T49" si="100">S45/S42</f>
         <v>0.50805637467476139</v>
       </c>
       <c r="T49" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="100"/>
         <v>0.45593150684931499</v>
       </c>
       <c r="U49" s="39">
-        <f t="shared" ref="U49:V49" si="82">U45/U42</f>
+        <f t="shared" ref="U49:V49" si="101">U45/U42</f>
         <v>0.37298190045248864</v>
       </c>
       <c r="V49" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="101"/>
         <v>0.29714317841079457</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W49" s="39">
+        <f t="shared" ref="W49:X49" si="102">W45/W42</f>
+        <v>0.34886221590909094</v>
+      </c>
+      <c r="X49" s="39">
+        <f t="shared" si="102"/>
+        <v>0.24291897106109331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
       <c r="E50" s="32"/>
       <c r="K50" s="32"/>
@@ -7487,319 +7924,552 @@
       <c r="T50" s="32"/>
       <c r="U50" s="32"/>
       <c r="V50" s="31"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="43">
-        <f t="shared" ref="F51:V52" si="83">F6/B6-1</f>
-        <v>0.348314606741573</v>
-      </c>
-      <c r="G51" s="44">
-        <f t="shared" si="83"/>
-        <v>0.35483870967741926</v>
-      </c>
-      <c r="H51" s="44">
-        <f t="shared" si="83"/>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="I51" s="44">
-        <f t="shared" si="83"/>
-        <v>0.31132075471698117</v>
-      </c>
-      <c r="J51" s="43">
-        <f t="shared" si="83"/>
-        <v>0.28333333333333344</v>
-      </c>
-      <c r="K51" s="44">
-        <f t="shared" si="83"/>
-        <v>0.26190476190476186</v>
-      </c>
-      <c r="L51" s="44">
-        <f t="shared" si="83"/>
-        <v>0.25</v>
-      </c>
-      <c r="M51" s="44">
-        <f t="shared" si="83"/>
-        <v>0.23741007194244612</v>
-      </c>
-      <c r="N51" s="43">
-        <f t="shared" si="83"/>
-        <v>0.19480519480519476</v>
-      </c>
-      <c r="O51" s="42">
-        <f t="shared" si="83"/>
-        <v>0.19496855345911945</v>
-      </c>
-      <c r="P51" s="42">
-        <f t="shared" si="83"/>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="Q51" s="42">
-        <f t="shared" si="83"/>
-        <v>0.16279069767441867</v>
-      </c>
-      <c r="R51" s="43">
-        <f t="shared" si="83"/>
-        <v>0.10326086956521729</v>
-      </c>
-      <c r="S51" s="42">
-        <f t="shared" si="83"/>
-        <v>0.11052631578947358</v>
-      </c>
-      <c r="T51" s="42">
-        <f t="shared" si="83"/>
-        <v>0.10769230769230775</v>
-      </c>
-      <c r="U51" s="42">
-        <f t="shared" si="83"/>
-        <v>0.1100000000000001</v>
-      </c>
-      <c r="V51" s="43">
-        <f t="shared" si="83"/>
-        <v>0.18719211822660098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="43">
-        <f t="shared" si="83"/>
-        <v>-8.1177519299338696E-2</v>
-      </c>
-      <c r="G52" s="44">
-        <f t="shared" si="83"/>
-        <v>5.3144326664844588E-3</v>
-      </c>
-      <c r="H52" s="44">
-        <f t="shared" si="83"/>
-        <v>7.4267860188298895E-2</v>
-      </c>
-      <c r="I52" s="44">
-        <f t="shared" si="83"/>
-        <v>8.8672920747448591E-2</v>
-      </c>
-      <c r="J52" s="43">
-        <f t="shared" si="83"/>
-        <v>0.30121182363616761</v>
-      </c>
-      <c r="K52" s="44">
-        <f t="shared" si="83"/>
-        <v>0.36696157499674054</v>
-      </c>
-      <c r="L52" s="44">
-        <f t="shared" si="83"/>
-        <v>0.4474917598104895</v>
-      </c>
-      <c r="M52" s="44">
-        <f t="shared" si="83"/>
-        <v>0.433753674507803</v>
-      </c>
-      <c r="N52" s="43">
-        <f t="shared" si="83"/>
-        <v>0.47005717187992158</v>
-      </c>
-      <c r="O52" s="42">
-        <f t="shared" si="83"/>
-        <v>0.40894111386021925</v>
-      </c>
-      <c r="P52" s="42">
-        <f t="shared" si="83"/>
-        <v>0.21666524454657021</v>
-      </c>
-      <c r="Q52" s="42">
-        <f t="shared" si="83"/>
-        <v>9.7941421929022665E-2</v>
-      </c>
-      <c r="R52" s="43">
-        <f t="shared" si="83"/>
-        <v>3.4104560413995566E-2</v>
-      </c>
-      <c r="S52" s="42">
-        <f t="shared" si="83"/>
-        <v>-8.8104148638401769E-2</v>
-      </c>
-      <c r="T52" s="42">
-        <f t="shared" si="83"/>
-        <v>-8.3824877660212849E-2</v>
-      </c>
-      <c r="U52" s="42">
-        <f t="shared" si="83"/>
-        <v>-0.12503943632348302</v>
-      </c>
-      <c r="V52" s="43">
-        <f t="shared" si="83"/>
-        <v>-0.31760045463665965</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40">
+        <f>F3/B3-1</f>
+        <v>0.25373926225366339</v>
+      </c>
+      <c r="G51" s="39">
+        <f>G3/C3-1</f>
+        <v>0.44733517702891867</v>
+      </c>
+      <c r="H51" s="39">
+        <f>H3/D3-1</f>
+        <v>0.48017683566185854</v>
+      </c>
+      <c r="I51" s="39">
+        <f>I3/E3-1</f>
+        <v>0.45043118423185913</v>
+      </c>
+      <c r="J51" s="40">
+        <f>J3/F3-1</f>
+        <v>0.70583197307700063</v>
+      </c>
+      <c r="K51" s="39">
+        <f>K3/G3-1</f>
+        <v>0.71687386473543913</v>
+      </c>
+      <c r="L51" s="39">
+        <f>L3/H3-1</f>
+        <v>0.76653073206843936</v>
+      </c>
+      <c r="M51" s="39">
+        <f>M3/I3-1</f>
+        <v>0.76880289561931114</v>
+      </c>
+      <c r="N51" s="40">
+        <f>N3/J3-1</f>
+        <v>0.78945285504173146</v>
+      </c>
+      <c r="O51" s="39">
+        <f>O3/K3-1</f>
+        <v>0.69433910414949152</v>
+      </c>
+      <c r="P51" s="39">
+        <f>P3/L3-1</f>
+        <v>0.47857140276658861</v>
+      </c>
+      <c r="Q51" s="39">
+        <f>Q3/M3-1</f>
+        <v>0.25491942643053833</v>
+      </c>
+      <c r="R51" s="40">
+        <f>R3/N3-1</f>
+        <v>0.12606742388982961</v>
+      </c>
+      <c r="S51" s="39">
+        <f>S3/O3-1</f>
+        <v>2.8599077693258756E-3</v>
+      </c>
+      <c r="T51" s="39">
+        <f>T3/P3-1</f>
+        <v>6.6630342094395889E-3</v>
+      </c>
+      <c r="U51" s="39">
+        <f>U3/Q3-1</f>
+        <v>-2.6416252613808644E-2</v>
+      </c>
+      <c r="V51" s="40">
+        <f>V3/R3-1</f>
+        <v>-0.1926446835765856</v>
+      </c>
+      <c r="W51" s="39">
+        <f>W3/S3-1</f>
+        <v>-8.1983827493261496E-2</v>
+      </c>
+      <c r="X51" s="39">
+        <f>X3/T3-1</f>
+        <v>1.1339805825242744E-2</v>
+      </c>
+      <c r="Y51" s="39">
+        <f>Y3/U3-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40">
+        <f>F4/B4-1</f>
+        <v>0.17011091652072396</v>
+      </c>
+      <c r="G52" s="39">
+        <f>G4/C4-1</f>
+        <v>-1.316645807259087E-2</v>
+      </c>
+      <c r="H52" s="39">
+        <f>H4/D4-1</f>
+        <v>6.9464314099507263E-2</v>
+      </c>
+      <c r="I52" s="39">
+        <f>I4/E4-1</f>
+        <v>0.27592573597292014</v>
+      </c>
+      <c r="J52" s="40">
+        <f>J4/F4-1</f>
+        <v>0.4919177808820594</v>
+      </c>
+      <c r="K52" s="39">
+        <f>K4/G4-1</f>
+        <v>0.77724228896103909</v>
+      </c>
+      <c r="L52" s="39">
+        <f>L4/H4-1</f>
+        <v>1.1418945699564009</v>
+      </c>
+      <c r="M52" s="39">
+        <f>M4/I4-1</f>
+        <v>0.81445453814615321</v>
+      </c>
+      <c r="N52" s="40">
+        <f>N4/J4-1</f>
+        <v>0.56948903156768327</v>
+      </c>
+      <c r="O52" s="39">
+        <f>O4/K4-1</f>
+        <v>0.6169611509148516</v>
+      </c>
+      <c r="P52" s="39">
+        <f>P4/L4-1</f>
+        <v>0.17732235381199124</v>
+      </c>
+      <c r="Q52" s="39">
+        <f>Q4/M4-1</f>
+        <v>0.43684093929995549</v>
+      </c>
+      <c r="R52" s="40">
+        <f>R4/N4-1</f>
+        <v>0.2365449354412581</v>
+      </c>
+      <c r="S52" s="39">
+        <f>S4/O4-1</f>
+        <v>7.6844316556922809E-2</v>
+      </c>
+      <c r="T52" s="39">
+        <f>T4/P4-1</f>
+        <v>8.0592557664348252E-2</v>
+      </c>
+      <c r="U52" s="39">
+        <f>U4/Q4-1</f>
+        <v>-4.4080235587967698E-2</v>
+      </c>
+      <c r="V52" s="40">
+        <f>V4/R4-1</f>
+        <v>-0.1734957612516369</v>
+      </c>
+      <c r="W52" s="39">
+        <f>W4/S4-1</f>
+        <v>-0.23263934426229516</v>
+      </c>
+      <c r="X52" s="39">
+        <f>X4/T4-1</f>
+        <v>-0.10787272727272723</v>
+      </c>
+      <c r="Y52" s="39">
+        <f>Y4/U4-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A53" s="25"/>
+      <c r="E53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
       <c r="O53" s="32"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="31"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="31"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="43">
+        <f>F6/B6-1</f>
+        <v>0.348314606741573</v>
+      </c>
+      <c r="G54" s="44">
+        <f>G6/C6-1</f>
+        <v>0.35483870967741926</v>
+      </c>
+      <c r="H54" s="44">
+        <f>H6/D6-1</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="I54" s="44">
+        <f>I6/E6-1</f>
+        <v>0.31132075471698117</v>
+      </c>
+      <c r="J54" s="43">
+        <f>J6/F6-1</f>
+        <v>0.28333333333333344</v>
+      </c>
+      <c r="K54" s="44">
+        <f>K6/G6-1</f>
+        <v>0.26190476190476186</v>
+      </c>
+      <c r="L54" s="44">
+        <f>L6/H6-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="M54" s="44">
+        <f>M6/I6-1</f>
+        <v>0.23741007194244612</v>
+      </c>
+      <c r="N54" s="43">
+        <f>N6/J6-1</f>
+        <v>0.19480519480519476</v>
+      </c>
+      <c r="O54" s="42">
+        <f>O6/K6-1</f>
+        <v>0.19496855345911945</v>
+      </c>
+      <c r="P54" s="42">
+        <f>P6/L6-1</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="Q54" s="42">
+        <f>Q6/M6-1</f>
+        <v>0.16279069767441867</v>
+      </c>
+      <c r="R54" s="43">
+        <f>R6/N6-1</f>
+        <v>0.10326086956521729</v>
+      </c>
+      <c r="S54" s="42">
+        <f>S6/O6-1</f>
+        <v>0.11052631578947358</v>
+      </c>
+      <c r="T54" s="42">
+        <f>T6/P6-1</f>
+        <v>0.10769230769230775</v>
+      </c>
+      <c r="U54" s="42">
+        <f>U6/Q6-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="V54" s="43">
+        <f>V6/R6-1</f>
+        <v>0.18719211822660098</v>
+      </c>
+      <c r="W54" s="42">
+        <f>W6/S6-1</f>
+        <v>8.5308056872037907E-2</v>
+      </c>
+      <c r="X54" s="42">
+        <f>X6/T6-1</f>
+        <v>3.7037037037036979E-2</v>
+      </c>
+      <c r="Y54" s="42">
+        <f>Y6/U6-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="43">
+        <f>F7/B7-1</f>
+        <v>-8.1177519299338696E-2</v>
+      </c>
+      <c r="G55" s="44">
+        <f>G7/C7-1</f>
+        <v>5.3144326664844588E-3</v>
+      </c>
+      <c r="H55" s="44">
+        <f>H7/D7-1</f>
+        <v>7.4267860188298895E-2</v>
+      </c>
+      <c r="I55" s="44">
+        <f>I7/E7-1</f>
+        <v>8.8672920747448591E-2</v>
+      </c>
+      <c r="J55" s="43">
+        <f>J7/F7-1</f>
+        <v>0.30121182363616761</v>
+      </c>
+      <c r="K55" s="44">
+        <f>K7/G7-1</f>
+        <v>0.36696157499674054</v>
+      </c>
+      <c r="L55" s="44">
+        <f>L7/H7-1</f>
+        <v>0.4474917598104895</v>
+      </c>
+      <c r="M55" s="44">
+        <f>M7/I7-1</f>
+        <v>0.433753674507803</v>
+      </c>
+      <c r="N55" s="43">
+        <f>N7/J7-1</f>
+        <v>0.47005717187992158</v>
+      </c>
+      <c r="O55" s="42">
+        <f>O7/K7-1</f>
+        <v>0.40894111386021925</v>
+      </c>
+      <c r="P55" s="42">
+        <f>P7/L7-1</f>
+        <v>0.21666524454657021</v>
+      </c>
+      <c r="Q55" s="42">
+        <f>Q7/M7-1</f>
+        <v>9.7941421929022665E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <f>R7/N7-1</f>
+        <v>3.4104560413995566E-2</v>
+      </c>
+      <c r="S55" s="42">
+        <f>S7/O7-1</f>
+        <v>-8.8104148638401769E-2</v>
+      </c>
+      <c r="T55" s="42">
+        <f>T7/P7-1</f>
+        <v>-8.3824877660212849E-2</v>
+      </c>
+      <c r="U55" s="42">
+        <f>U7/Q7-1</f>
+        <v>-0.12503943632348302</v>
+      </c>
+      <c r="V55" s="43">
+        <f>V7/R7-1</f>
+        <v>-0.31760045463665965</v>
+      </c>
+      <c r="W55" s="42">
+        <f>W7/S7-1</f>
+        <v>-0.17374329815623468</v>
+      </c>
+      <c r="X55" s="42">
+        <f>X7/T7-1</f>
+        <v>-3.8318063628020704E-2</v>
+      </c>
+      <c r="Y55" s="42">
+        <f>Y7/U7-1</f>
+        <v>-3.7403337403337455E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="31"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B57" s="26">
         <v>198</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C57" s="26">
         <v>212</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D57" s="26">
         <v>222</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E57" s="26">
         <v>236</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F57" s="31">
         <v>261</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G57" s="26">
         <v>282</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H57" s="26">
         <v>297</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I57" s="26">
         <v>313</v>
       </c>
-      <c r="J54" s="31">
+      <c r="J57" s="31">
         <v>340</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K57" s="26">
         <v>361</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L57" s="26">
         <v>376</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M57" s="26">
         <v>392</v>
       </c>
-      <c r="N54" s="31">
+      <c r="N57" s="31">
         <v>411</v>
       </c>
-      <c r="O54" s="32">
+      <c r="O57" s="32">
         <v>431</v>
       </c>
-      <c r="P54" s="32">
+      <c r="P57" s="32">
         <v>446</v>
       </c>
-      <c r="Q54" s="32">
+      <c r="Q57" s="32">
         <v>462</v>
       </c>
-      <c r="R54" s="31">
+      <c r="R57" s="31">
         <v>465</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S57" s="1">
         <v>486</v>
       </c>
-      <c r="T54" s="1">
+      <c r="T57" s="1">
         <v>497</v>
       </c>
-      <c r="U54" s="1">
+      <c r="U57" s="1">
         <v>516</v>
       </c>
-      <c r="V54" s="70">
+      <c r="V57" s="69">
         <v>550</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="W57" s="74">
+        <v>523</v>
+      </c>
+      <c r="X57" s="74">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="F55" s="43">
-        <f t="shared" ref="F55:V55" si="84">F54/B54-1</f>
+      <c r="C58" s="27"/>
+      <c r="F58" s="43">
+        <f t="shared" ref="F58:X58" si="103">F57/B57-1</f>
         <v>0.31818181818181812</v>
       </c>
-      <c r="G55" s="44">
-        <f t="shared" si="84"/>
+      <c r="G58" s="44">
+        <f t="shared" si="103"/>
         <v>0.33018867924528306</v>
       </c>
-      <c r="H55" s="44">
-        <f t="shared" si="84"/>
+      <c r="H58" s="44">
+        <f t="shared" si="103"/>
         <v>0.33783783783783794</v>
       </c>
-      <c r="I55" s="44">
-        <f t="shared" si="84"/>
+      <c r="I58" s="44">
+        <f t="shared" si="103"/>
         <v>0.32627118644067798</v>
       </c>
-      <c r="J55" s="43">
-        <f t="shared" si="84"/>
+      <c r="J58" s="43">
+        <f t="shared" si="103"/>
         <v>0.30268199233716464</v>
       </c>
-      <c r="K55" s="44">
-        <f t="shared" si="84"/>
+      <c r="K58" s="44">
+        <f t="shared" si="103"/>
         <v>0.28014184397163122</v>
       </c>
-      <c r="L55" s="44">
-        <f t="shared" si="84"/>
+      <c r="L58" s="44">
+        <f t="shared" si="103"/>
         <v>0.265993265993266</v>
       </c>
-      <c r="M55" s="44">
-        <f t="shared" si="84"/>
+      <c r="M58" s="44">
+        <f t="shared" si="103"/>
         <v>0.25239616613418536</v>
       </c>
-      <c r="N55" s="43">
-        <f t="shared" si="84"/>
+      <c r="N58" s="43">
+        <f t="shared" si="103"/>
         <v>0.20882352941176463</v>
       </c>
-      <c r="O55" s="42">
-        <f t="shared" si="84"/>
+      <c r="O58" s="42">
+        <f t="shared" si="103"/>
         <v>0.19390581717451516</v>
       </c>
-      <c r="P55" s="42">
-        <f t="shared" si="84"/>
+      <c r="P58" s="42">
+        <f t="shared" si="103"/>
         <v>0.18617021276595747</v>
       </c>
-      <c r="Q55" s="42">
-        <f t="shared" si="84"/>
+      <c r="Q58" s="42">
+        <f t="shared" si="103"/>
         <v>0.1785714285714286</v>
       </c>
-      <c r="R55" s="43">
-        <f t="shared" si="84"/>
+      <c r="R58" s="43">
+        <f t="shared" si="103"/>
         <v>0.13138686131386867</v>
       </c>
-      <c r="S55" s="42">
-        <f t="shared" si="84"/>
+      <c r="S58" s="42">
+        <f t="shared" si="103"/>
         <v>0.12761020881670526</v>
       </c>
-      <c r="T55" s="42">
-        <f t="shared" si="84"/>
+      <c r="T58" s="42">
+        <f t="shared" si="103"/>
         <v>0.11434977578475336</v>
       </c>
-      <c r="U55" s="42">
-        <f t="shared" si="84"/>
+      <c r="U58" s="42">
+        <f t="shared" si="103"/>
         <v>0.11688311688311681</v>
       </c>
-      <c r="V55" s="43">
-        <f t="shared" si="84"/>
+      <c r="V58" s="43">
+        <f t="shared" si="103"/>
         <v>0.18279569892473124</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="R56" s="31"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="R57" s="31"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="R58" s="31"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W58" s="42">
+        <f t="shared" si="103"/>
+        <v>7.6131687242798396E-2</v>
+      </c>
+      <c r="X58" s="42">
+        <f t="shared" si="103"/>
+        <v>2.8169014084507005E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
       <c r="R59" s="31"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
       <c r="R60" s="31"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B61" s="27"/>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
       <c r="R61" s="31"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="R62" s="31"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="R63" s="31"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="B64" s="27"/>
+      <c r="R64" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
